--- a/data/ecological_attributes.xlsx
+++ b/data/ecological_attributes.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$V$191</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$AC$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -32,7 +32,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Florencia Miguel:
 </t>
@@ -42,7 +42,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Prosopis tree height in cm. </t>
         </r>
@@ -56,7 +56,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Florencia Miguel:</t>
         </r>
@@ -65,7 +65,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 number of unripen Prosopis fruits on crown</t>
@@ -80,7 +80,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Florencia Miguel:</t>
         </r>
@@ -89,7 +89,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 number of ripen Prosopis fruits on ground during experiment</t>
@@ -104,7 +104,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Florencia Miguel:</t>
         </r>
@@ -113,7 +113,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 number of neighboring plants in a 10 m radii from focal Prosopis tree</t>
@@ -128,7 +128,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Florencia Miguel:</t>
         </r>
@@ -137,7 +137,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 number of Prosopis neighboring plants in a 10 m radii from focal Prosopis tree</t>
@@ -152,7 +152,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Florencia Miguel:</t>
         </r>
@@ -161,7 +161,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 mean vegetation cover from 4 transects 3 m each under Prosopis tree crown </t>
@@ -176,7 +176,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Florencia Miguel:</t>
         </r>
@@ -185,7 +185,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 standard deviation of vegetation cover from 4 transects 3 m each under Prosopis tree crown</t>
@@ -200,7 +200,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Florencia Miguel:</t>
         </r>
@@ -209,7 +209,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 mean bare ground cover from 4 transects 3 m each under Prosopis tree crown </t>
@@ -224,7 +224,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Florencia Miguel:</t>
         </r>
@@ -233,7 +233,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 mean litter cover from 4 transects 3 m each under Prosopis tree crown </t>
@@ -248,7 +248,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Florencia Miguel:</t>
         </r>
@@ -257,7 +257,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 mean vegetation cover of low stratum from 4 transects 3 m each under Prosopis tree crown</t>
@@ -272,7 +272,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Florencia Miguel:</t>
         </r>
@@ -281,7 +281,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Florencia Miguel:
@@ -297,7 +297,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Florencia Miguel:</t>
         </r>
@@ -306,7 +306,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 mean vegetation cover of high stratum from 4 transects 3 m each under Prosopis tree crown</t>
@@ -321,7 +321,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Florencia Miguel:</t>
         </r>
@@ -330,10 +330,154 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 geographic coordinates of Prosopis trees in UTM</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Florencia Miguel:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cover of litter in transects of 50 m long. 100 points per transect</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Florencia Miguel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+cover of bare ground in transects of 50 m long. 100 points per transect</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Florencia Miguel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+vegetation cover in the low stratum in transects of 50 m long. 100 points per transect</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Florencia Miguel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+vegetation cover in the medium stratum in transects of 50 m long. 100 points per transect</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Florencia Miguel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+vegetation cover in the high stratum in transects of 50 m long. 100 points per transect</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Florencia Miguel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+location of transects</t>
         </r>
       </text>
     </comment>
@@ -342,7 +486,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="226">
   <si>
     <t>trees</t>
   </si>
@@ -999,13 +1143,34 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>litter.site</t>
+  </si>
+  <si>
+    <t>bare.ground.site</t>
+  </si>
+  <si>
+    <t>low.site</t>
+  </si>
+  <si>
+    <t>medium.site</t>
+  </si>
+  <si>
+    <t>high.site</t>
+  </si>
+  <si>
+    <t>x.transect</t>
+  </si>
+  <si>
+    <t>y.transect</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1023,14 +1188,20 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1053,7 +1224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1061,6 +1232,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1355,11 +1528,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V191"/>
+  <dimension ref="A1:AC191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1385,10 +1558,17 @@
     <col min="19" max="19" width="6.5703125" customWidth="1"/>
     <col min="20" max="20" width="7" customWidth="1"/>
     <col min="21" max="21" width="8.7109375" style="3" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" style="3" customWidth="1"/>
+    <col min="22" max="22" width="9.42578125" style="3" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" customWidth="1"/>
+    <col min="24" max="24" width="5.28515625" customWidth="1"/>
+    <col min="25" max="25" width="4.7109375" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" customWidth="1"/>
+    <col min="27" max="27" width="4.5703125" customWidth="1"/>
+    <col min="28" max="28" width="7.5703125" customWidth="1"/>
+    <col min="29" max="29" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1455,8 +1635,29 @@
       <c r="V1" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" t="s">
+        <v>219</v>
+      </c>
+      <c r="X1" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1523,8 +1724,29 @@
       <c r="V2" s="3">
         <v>6232445</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X2" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>602412</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>6232314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1591,8 +1813,29 @@
       <c r="V3" s="3">
         <v>6232173</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X3" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>602412</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>6232314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1659,8 +1902,29 @@
       <c r="V4" s="3">
         <v>6231954</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X4" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>602412</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>6232314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1727,8 +1991,29 @@
       <c r="V5" s="3">
         <v>6231847</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>602412</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>6232314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1795,8 +2080,29 @@
       <c r="V6" s="3">
         <v>6231517</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>602412</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>6232314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1863,8 +2169,29 @@
       <c r="V7" s="3">
         <v>6231159</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>602412</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>6232314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1931,8 +2258,29 @@
       <c r="V8" s="3">
         <v>6231132</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X8" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>602412</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>6232314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1999,8 +2347,29 @@
       <c r="V9" s="3">
         <v>6231074</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X9" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>602412</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>6232314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2067,8 +2436,29 @@
       <c r="V10" s="3">
         <v>6231070</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="X10" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>605032</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>6231077</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2135,8 +2525,29 @@
       <c r="V11" s="3">
         <v>6231051</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="X11" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>605032</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>6231077</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2203,8 +2614,29 @@
       <c r="V12" s="3">
         <v>6231026</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="X12" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>605032</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>6231077</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -2271,8 +2703,29 @@
       <c r="V13" s="3">
         <v>6230989</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="X13" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="AB13" s="7">
+        <v>605032</v>
+      </c>
+      <c r="AC13" s="7">
+        <v>6231077</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -2339,8 +2792,29 @@
       <c r="V14" s="3">
         <v>6230964</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="X14" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="AB14" s="7">
+        <v>605032</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>6231077</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -2407,8 +2881,29 @@
       <c r="V15" s="3">
         <v>6230970</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="X15" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="AB15" s="7">
+        <v>605032</v>
+      </c>
+      <c r="AC15" s="7">
+        <v>6231077</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2475,8 +2970,29 @@
       <c r="V16" s="3">
         <v>6230931</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="X16" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="AB16" s="7">
+        <v>605032</v>
+      </c>
+      <c r="AC16" s="7">
+        <v>6231077</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -2543,8 +3059,29 @@
       <c r="V17" s="3">
         <v>6230924</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="X17" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="AB17" s="7">
+        <v>605032</v>
+      </c>
+      <c r="AC17" s="7">
+        <v>6231077</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -2611,8 +3148,29 @@
       <c r="V18" s="3">
         <v>6228586</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="X18" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>608080</v>
+      </c>
+      <c r="AC18" s="7">
+        <v>6229175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -2679,8 +3237,29 @@
       <c r="V19" s="3">
         <v>6228892</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="X19" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AB19" s="7">
+        <v>608080</v>
+      </c>
+      <c r="AC19" s="7">
+        <v>6229175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2747,8 +3326,29 @@
       <c r="V20" s="3">
         <v>6229231</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="X20" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AA20" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AB20" s="7">
+        <v>608080</v>
+      </c>
+      <c r="AC20" s="7">
+        <v>6229175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -2815,8 +3415,29 @@
       <c r="V21" s="3">
         <v>6229612</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="X21" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AB21" s="7">
+        <v>608080</v>
+      </c>
+      <c r="AC21" s="7">
+        <v>6229175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -2883,8 +3504,29 @@
       <c r="V22" s="3">
         <v>6230049</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="X22" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AB22" s="7">
+        <v>608080</v>
+      </c>
+      <c r="AC22" s="7">
+        <v>6229175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -2951,8 +3593,29 @@
       <c r="V23" s="3">
         <v>6230410</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="X23" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="Z23" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AA23" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AB23" s="7">
+        <v>608116</v>
+      </c>
+      <c r="AC23" s="7">
+        <v>6230727</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -3019,8 +3682,29 @@
       <c r="V24" s="3">
         <v>6230833</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="X24" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AA24" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AB24" s="7">
+        <v>608116</v>
+      </c>
+      <c r="AC24" s="7">
+        <v>6230727</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -3087,8 +3771,29 @@
       <c r="V25" s="3">
         <v>6230996</v>
       </c>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="W25" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="X25" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="Z25" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AA25" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AB25" s="7">
+        <v>608116</v>
+      </c>
+      <c r="AC25" s="7">
+        <v>6230727</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -3155,8 +3860,29 @@
       <c r="V26" s="3">
         <v>6227642</v>
       </c>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="W26" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="X26" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="Z26" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AA26" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="AB26" s="7">
+        <v>607867</v>
+      </c>
+      <c r="AC26" s="7">
+        <v>6228247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -3223,8 +3949,29 @@
       <c r="V27" s="3">
         <v>6227730</v>
       </c>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="W27" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="X27" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="Z27" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="AB27" s="7">
+        <v>607867</v>
+      </c>
+      <c r="AC27" s="7">
+        <v>6228247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -3291,8 +4038,29 @@
       <c r="V28" s="3">
         <v>6227879</v>
       </c>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="W28" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="X28" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Y28" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="Z28" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AA28" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="AB28" s="7">
+        <v>607867</v>
+      </c>
+      <c r="AC28" s="7">
+        <v>6228247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -3359,8 +4127,29 @@
       <c r="V29" s="3">
         <v>6228125</v>
       </c>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="W29" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="X29" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Y29" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="Z29" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AA29" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="AB29" s="7">
+        <v>607867</v>
+      </c>
+      <c r="AC29" s="7">
+        <v>6228247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3427,8 +4216,29 @@
       <c r="V30" s="3">
         <v>6228257</v>
       </c>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="W30" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="X30" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="Y30" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="Z30" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA30" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AB30" s="7">
+        <v>606838</v>
+      </c>
+      <c r="AC30" s="7">
+        <v>6228229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -3495,8 +4305,29 @@
       <c r="V31" s="3">
         <v>6228253</v>
       </c>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="W31" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="X31" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="Y31" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="Z31" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA31" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AB31" s="7">
+        <v>606838</v>
+      </c>
+      <c r="AC31" s="7">
+        <v>6228229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -3563,8 +4394,29 @@
       <c r="V32" s="3">
         <v>6228257</v>
       </c>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="W32" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="X32" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="Y32" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="Z32" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA32" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AB32" s="7">
+        <v>606838</v>
+      </c>
+      <c r="AC32" s="7">
+        <v>6228229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -3631,8 +4483,29 @@
       <c r="V33" s="3">
         <v>6228277</v>
       </c>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="W33" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="X33" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="Y33" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="Z33" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA33" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AB33" s="7">
+        <v>606838</v>
+      </c>
+      <c r="AC33" s="7">
+        <v>6228229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -3699,8 +4572,29 @@
       <c r="V34" s="3">
         <v>6228172</v>
       </c>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="W34" s="5">
+        <v>0</v>
+      </c>
+      <c r="X34" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="Z34" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AA34" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB34" s="7">
+        <v>605631</v>
+      </c>
+      <c r="AC34" s="7">
+        <v>6229959</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -3767,8 +4661,29 @@
       <c r="V35" s="3">
         <v>6228459</v>
       </c>
-    </row>
-    <row r="36" spans="1:22">
+      <c r="W35" s="5">
+        <v>0</v>
+      </c>
+      <c r="X35" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="Z35" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AA35" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB35" s="7">
+        <v>605631</v>
+      </c>
+      <c r="AC35" s="7">
+        <v>6229959</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -3835,8 +4750,29 @@
       <c r="V36" s="3">
         <v>6228958</v>
       </c>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="W36" s="5">
+        <v>0</v>
+      </c>
+      <c r="X36" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="Z36" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AA36" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB36" s="7">
+        <v>605631</v>
+      </c>
+      <c r="AC36" s="7">
+        <v>6229959</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -3903,8 +4839,29 @@
       <c r="V37" s="3">
         <v>6229373</v>
       </c>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="W37" s="5">
+        <v>0</v>
+      </c>
+      <c r="X37" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="Z37" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AA37" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB37" s="7">
+        <v>605631</v>
+      </c>
+      <c r="AC37" s="7">
+        <v>6229959</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -3971,8 +4928,29 @@
       <c r="V38" s="3">
         <v>6229702</v>
       </c>
-    </row>
-    <row r="39" spans="1:22">
+      <c r="W38" s="5">
+        <v>0</v>
+      </c>
+      <c r="X38" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="Z38" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AA38" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB38" s="7">
+        <v>605631</v>
+      </c>
+      <c r="AC38" s="7">
+        <v>6229959</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -4039,8 +5017,29 @@
       <c r="V39" s="3">
         <v>6230036</v>
       </c>
-    </row>
-    <row r="40" spans="1:22">
+      <c r="W39" s="5">
+        <v>0</v>
+      </c>
+      <c r="X39" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="Z39" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AA39" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB39" s="7">
+        <v>605631</v>
+      </c>
+      <c r="AC39" s="7">
+        <v>6229959</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -4107,8 +5106,29 @@
       <c r="V40" s="3">
         <v>6230347</v>
       </c>
-    </row>
-    <row r="41" spans="1:22">
+      <c r="W40" s="5">
+        <v>0</v>
+      </c>
+      <c r="X40" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="Z40" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AA40" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB40" s="7">
+        <v>605631</v>
+      </c>
+      <c r="AC40" s="7">
+        <v>6229959</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -4175,8 +5195,29 @@
       <c r="V41" s="3">
         <v>6230836</v>
       </c>
-    </row>
-    <row r="42" spans="1:22">
+      <c r="W41" s="5">
+        <v>0</v>
+      </c>
+      <c r="X41" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="Z41" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AA41" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB41" s="7">
+        <v>605631</v>
+      </c>
+      <c r="AC41" s="7">
+        <v>6229959</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -4243,8 +5284,29 @@
       <c r="V42" s="3">
         <v>6230680</v>
       </c>
-    </row>
-    <row r="43" spans="1:22">
+      <c r="W42" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="X42" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Y42" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Z42" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA42" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB42" s="7">
+        <v>604934</v>
+      </c>
+      <c r="AC42" s="7">
+        <v>6230231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -4311,8 +5373,29 @@
       <c r="V43" s="3">
         <v>6230477</v>
       </c>
-    </row>
-    <row r="44" spans="1:22">
+      <c r="W43" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="X43" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Y43" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Z43" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA43" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB43" s="7">
+        <v>604934</v>
+      </c>
+      <c r="AC43" s="7">
+        <v>6230231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -4379,8 +5462,29 @@
       <c r="V44" s="3">
         <v>6230314</v>
       </c>
-    </row>
-    <row r="45" spans="1:22">
+      <c r="W44" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="X44" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Y44" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Z44" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA44" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB44" s="7">
+        <v>604934</v>
+      </c>
+      <c r="AC44" s="7">
+        <v>6230231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -4447,8 +5551,29 @@
       <c r="V45" s="3">
         <v>6230095</v>
       </c>
-    </row>
-    <row r="46" spans="1:22">
+      <c r="W45" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="X45" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Y45" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Z45" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA45" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB45" s="7">
+        <v>604934</v>
+      </c>
+      <c r="AC45" s="7">
+        <v>6230231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -4515,8 +5640,29 @@
       <c r="V46" s="3">
         <v>6229905</v>
       </c>
-    </row>
-    <row r="47" spans="1:22">
+      <c r="W46" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="X46" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Y46" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Z46" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA46" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB46" s="7">
+        <v>604934</v>
+      </c>
+      <c r="AC46" s="7">
+        <v>6230231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -4583,8 +5729,29 @@
       <c r="V47" s="3">
         <v>6229694</v>
       </c>
-    </row>
-    <row r="48" spans="1:22">
+      <c r="W47" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="X47" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Y47" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Z47" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA47" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB47" s="7">
+        <v>604934</v>
+      </c>
+      <c r="AC47" s="7">
+        <v>6230231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -4651,8 +5818,29 @@
       <c r="V48" s="3">
         <v>6229523</v>
       </c>
-    </row>
-    <row r="49" spans="1:22">
+      <c r="W48" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="X48" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Y48" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Z48" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA48" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB48" s="7">
+        <v>604934</v>
+      </c>
+      <c r="AC48" s="7">
+        <v>6230231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -4719,8 +5907,29 @@
       <c r="V49" s="3">
         <v>6229272</v>
       </c>
-    </row>
-    <row r="50" spans="1:22">
+      <c r="W49" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="X49" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Y49" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Z49" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA49" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB49" s="7">
+        <v>604934</v>
+      </c>
+      <c r="AC49" s="7">
+        <v>6230231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -4787,8 +5996,29 @@
       <c r="V50" s="3">
         <v>6228789</v>
       </c>
-    </row>
-    <row r="51" spans="1:22">
+      <c r="W50" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X50" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y50" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="Z50" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AA50" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AB50" s="7">
+        <v>601756</v>
+      </c>
+      <c r="AC50" s="7">
+        <v>6229745</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -4855,8 +6085,29 @@
       <c r="V51" s="3">
         <v>6229112</v>
       </c>
-    </row>
-    <row r="52" spans="1:22">
+      <c r="W51" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X51" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y51" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="Z51" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AA51" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AB51" s="7">
+        <v>601756</v>
+      </c>
+      <c r="AC51" s="7">
+        <v>6229745</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -4923,8 +6174,29 @@
       <c r="V52" s="3">
         <v>6229469</v>
       </c>
-    </row>
-    <row r="53" spans="1:22">
+      <c r="W52" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X52" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y52" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="Z52" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AA52" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AB52" s="7">
+        <v>601756</v>
+      </c>
+      <c r="AC52" s="7">
+        <v>6229745</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -4991,8 +6263,29 @@
       <c r="V53" s="3">
         <v>6229781</v>
       </c>
-    </row>
-    <row r="54" spans="1:22">
+      <c r="W53" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X53" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y53" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="Z53" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AA53" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AB53" s="7">
+        <v>601756</v>
+      </c>
+      <c r="AC53" s="7">
+        <v>6229745</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -5059,8 +6352,29 @@
       <c r="V54" s="3">
         <v>6230082</v>
       </c>
-    </row>
-    <row r="55" spans="1:22">
+      <c r="W54" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X54" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y54" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="Z54" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AA54" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AB54" s="7">
+        <v>601756</v>
+      </c>
+      <c r="AC54" s="7">
+        <v>6229745</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -5127,8 +6441,29 @@
       <c r="V55" s="3">
         <v>6230415</v>
       </c>
-    </row>
-    <row r="56" spans="1:22">
+      <c r="W55" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X55" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y55" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="Z55" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AA55" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AB55" s="7">
+        <v>601756</v>
+      </c>
+      <c r="AC55" s="7">
+        <v>6229745</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -5195,8 +6530,29 @@
       <c r="V56" s="3">
         <v>6230748</v>
       </c>
-    </row>
-    <row r="57" spans="1:22">
+      <c r="W56" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="X56" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Y56" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="Z56" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AA56" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AB56" s="7">
+        <v>601814</v>
+      </c>
+      <c r="AC56" s="7">
+        <v>6231024</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -5263,8 +6619,29 @@
       <c r="V57" s="3">
         <v>6231054</v>
       </c>
-    </row>
-    <row r="58" spans="1:22">
+      <c r="W57" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="X57" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Y57" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="Z57" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AA57" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AB57" s="7">
+        <v>601814</v>
+      </c>
+      <c r="AC57" s="7">
+        <v>6231024</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -5331,8 +6708,29 @@
       <c r="V58" s="3">
         <v>6231436</v>
       </c>
-    </row>
-    <row r="59" spans="1:22">
+      <c r="W58" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="X58" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Y58" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="Z58" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AA58" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AB58" s="7">
+        <v>601814</v>
+      </c>
+      <c r="AC58" s="7">
+        <v>6231024</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -5399,8 +6797,29 @@
       <c r="V59" s="3">
         <v>6231806</v>
       </c>
-    </row>
-    <row r="60" spans="1:22">
+      <c r="W59" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="X59" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Y59" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="Z59" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AA59" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AB59" s="7">
+        <v>601814</v>
+      </c>
+      <c r="AC59" s="7">
+        <v>6231024</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -5467,8 +6886,29 @@
       <c r="V60" s="3">
         <v>6232126</v>
       </c>
-    </row>
-    <row r="61" spans="1:22">
+      <c r="W60" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="X60" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Y60" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="Z60" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AA60" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AB60" s="7">
+        <v>601814</v>
+      </c>
+      <c r="AC60" s="7">
+        <v>6231024</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -5535,8 +6975,29 @@
       <c r="V61" s="3">
         <v>6232467</v>
       </c>
-    </row>
-    <row r="62" spans="1:22">
+      <c r="W61" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="X61" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Y61" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="Z61" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AA61" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AB61" s="7">
+        <v>601814</v>
+      </c>
+      <c r="AC61" s="7">
+        <v>6231024</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -5603,8 +7064,29 @@
       <c r="V62" s="3">
         <v>6234194</v>
       </c>
-    </row>
-    <row r="63" spans="1:22">
+      <c r="W62" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="X62" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="Y62" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="Z62" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="AA62" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="AB62" s="7">
+        <v>594150</v>
+      </c>
+      <c r="AC62" s="7">
+        <v>6234208</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -5671,8 +7153,29 @@
       <c r="V63" s="3">
         <v>6234173</v>
       </c>
-    </row>
-    <row r="64" spans="1:22">
+      <c r="W63" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="X63" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="Y63" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="Z63" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="AA63" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="AB63" s="7">
+        <v>594150</v>
+      </c>
+      <c r="AC63" s="7">
+        <v>6234208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -5739,8 +7242,29 @@
       <c r="V64" s="3">
         <v>6234207</v>
       </c>
-    </row>
-    <row r="65" spans="1:22">
+      <c r="W64" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="X64" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="Y64" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="Z64" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="AA64" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="AB64" s="7">
+        <v>594150</v>
+      </c>
+      <c r="AC64" s="7">
+        <v>6234208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -5807,8 +7331,29 @@
       <c r="V65" s="3">
         <v>6234198</v>
       </c>
-    </row>
-    <row r="66" spans="1:22">
+      <c r="W65" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="X65" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="Y65" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="Z65" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="AA65" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="AB65" s="7">
+        <v>594150</v>
+      </c>
+      <c r="AC65" s="7">
+        <v>6234208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -5875,8 +7420,29 @@
       <c r="V66" s="3">
         <v>6234193</v>
       </c>
-    </row>
-    <row r="67" spans="1:22">
+      <c r="W66" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="X66" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="Y66" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="Z66" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="AA66" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="AB66" s="7">
+        <v>594150</v>
+      </c>
+      <c r="AC66" s="7">
+        <v>6234208</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -5943,8 +7509,29 @@
       <c r="V67" s="3">
         <v>6234222</v>
       </c>
-    </row>
-    <row r="68" spans="1:22">
+      <c r="W67" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="X67" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="Y67" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="Z67" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="AA67" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="AB67" s="7">
+        <v>594150</v>
+      </c>
+      <c r="AC67" s="7">
+        <v>6234208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -6011,8 +7598,29 @@
       <c r="V68" s="3">
         <v>6234241</v>
       </c>
-    </row>
-    <row r="69" spans="1:22">
+      <c r="W68" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="X68" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="Y68" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="Z68" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="AA68" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="AB68" s="7">
+        <v>594150</v>
+      </c>
+      <c r="AC68" s="7">
+        <v>6234208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -6079,8 +7687,29 @@
       <c r="V69" s="3">
         <v>6234246</v>
       </c>
-    </row>
-    <row r="70" spans="1:22">
+      <c r="W69" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="X69" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="Y69" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="Z69" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AA69" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="AB69" s="7">
+        <v>588435</v>
+      </c>
+      <c r="AC69" s="7">
+        <v>6234257</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -6147,8 +7776,29 @@
       <c r="V70" s="3">
         <v>6234227</v>
       </c>
-    </row>
-    <row r="71" spans="1:22">
+      <c r="W70" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="X70" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="Y70" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="Z70" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AA70" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="AB70" s="7">
+        <v>588435</v>
+      </c>
+      <c r="AC70" s="7">
+        <v>6234257</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -6215,8 +7865,29 @@
       <c r="V71" s="3">
         <v>6234235</v>
       </c>
-    </row>
-    <row r="72" spans="1:22">
+      <c r="W71" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="X71" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="Y71" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="Z71" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AA71" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="AB71" s="7">
+        <v>588435</v>
+      </c>
+      <c r="AC71" s="7">
+        <v>6234257</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -6283,8 +7954,29 @@
       <c r="V72" s="3">
         <v>6234249</v>
       </c>
-    </row>
-    <row r="73" spans="1:22">
+      <c r="W72" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="X72" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="Y72" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="Z72" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AA72" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="AB72" s="7">
+        <v>588089</v>
+      </c>
+      <c r="AC72" s="7">
+        <v>6234281</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -6351,8 +8043,29 @@
       <c r="V73" s="3">
         <v>6234281</v>
       </c>
-    </row>
-    <row r="74" spans="1:22">
+      <c r="W73" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="X73" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Y73" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="Z73" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="AA73" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="AB73" s="7">
+        <v>587857</v>
+      </c>
+      <c r="AC73" s="7">
+        <v>6234276</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -6419,8 +8132,29 @@
       <c r="V74" s="3">
         <v>6234284</v>
       </c>
-    </row>
-    <row r="75" spans="1:22">
+      <c r="W74" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="X74" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Y74" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="Z74" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="AA74" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="AB74" s="7">
+        <v>587857</v>
+      </c>
+      <c r="AC74" s="7">
+        <v>6234276</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -6487,8 +8221,29 @@
       <c r="V75" s="3">
         <v>6234287</v>
       </c>
-    </row>
-    <row r="76" spans="1:22">
+      <c r="W75" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="X75" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Y75" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="Z75" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="AA75" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="AB75" s="7">
+        <v>587857</v>
+      </c>
+      <c r="AC75" s="7">
+        <v>6234276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -6555,8 +8310,29 @@
       <c r="V76" s="3">
         <v>6234307</v>
       </c>
-    </row>
-    <row r="77" spans="1:22">
+      <c r="W76" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="X76" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Y76" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="Z76" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="AA76" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="AB76" s="7">
+        <v>587857</v>
+      </c>
+      <c r="AC76" s="7">
+        <v>6234276</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -6623,8 +8399,29 @@
       <c r="V77" s="3">
         <v>6232260</v>
       </c>
-    </row>
-    <row r="78" spans="1:22">
+      <c r="W77" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="X77" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="Y77" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="Z77" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="AA77" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AB77" s="7">
+        <v>594287</v>
+      </c>
+      <c r="AC77" s="7">
+        <v>6232277</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -6691,8 +8488,29 @@
       <c r="V78" s="3">
         <v>6232236</v>
       </c>
-    </row>
-    <row r="79" spans="1:22">
+      <c r="W78" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="X78" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="Y78" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="Z78" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AA78" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="AB78" s="7">
+        <v>593867</v>
+      </c>
+      <c r="AC78" s="7">
+        <v>6232264</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -6759,8 +8577,29 @@
       <c r="V79" s="3">
         <v>6232236</v>
       </c>
-    </row>
-    <row r="80" spans="1:22">
+      <c r="W79" s="5">
+        <v>0.47</v>
+      </c>
+      <c r="X79" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="Y79" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="Z79" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AA79" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="AB79" s="7">
+        <v>593265</v>
+      </c>
+      <c r="AC79" s="7">
+        <v>6232235</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -6827,8 +8666,29 @@
       <c r="V80" s="3">
         <v>6232268</v>
       </c>
-    </row>
-    <row r="81" spans="1:22">
+      <c r="W80" s="5">
+        <v>0.47</v>
+      </c>
+      <c r="X80" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="Y80" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="Z80" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AA80" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="AB80" s="7">
+        <v>593265</v>
+      </c>
+      <c r="AC80" s="7">
+        <v>6232235</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -6895,8 +8755,29 @@
       <c r="V81" s="3">
         <v>6232254</v>
       </c>
-    </row>
-    <row r="82" spans="1:22">
+      <c r="W81" s="5">
+        <v>0.47</v>
+      </c>
+      <c r="X81" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="Y81" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="Z81" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AA81" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="AB81" s="7">
+        <v>593265</v>
+      </c>
+      <c r="AC81" s="7">
+        <v>6232235</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -6963,8 +8844,29 @@
       <c r="V82" s="3">
         <v>6232254</v>
       </c>
-    </row>
-    <row r="83" spans="1:22">
+      <c r="W82" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="X82" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="Y82" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="Z82" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AA82" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="AB82" s="8">
+        <v>593774</v>
+      </c>
+      <c r="AC82" s="8">
+        <v>6232254</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -7031,8 +8933,29 @@
       <c r="V83" s="3">
         <v>6232250</v>
       </c>
-    </row>
-    <row r="84" spans="1:22">
+      <c r="W83" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="X83" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="Y83" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="Z83" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AA83" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="AB83" s="8">
+        <v>593774</v>
+      </c>
+      <c r="AC83" s="8">
+        <v>6232254</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -7099,8 +9022,29 @@
       <c r="V84" s="3">
         <v>6232251</v>
       </c>
-    </row>
-    <row r="85" spans="1:22">
+      <c r="W84" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="X84" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="Y84" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="Z84" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AA84" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="AB84" s="8">
+        <v>593774</v>
+      </c>
+      <c r="AC84" s="8">
+        <v>6232254</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -7167,8 +9111,29 @@
       <c r="V85" s="3">
         <v>6232250</v>
       </c>
-    </row>
-    <row r="86" spans="1:22">
+      <c r="W85" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="X85" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="Y85" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="Z85" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AA85" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="AB85" s="8">
+        <v>593774</v>
+      </c>
+      <c r="AC85" s="8">
+        <v>6232254</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -7235,8 +9200,29 @@
       <c r="V86" s="3">
         <v>6232243</v>
       </c>
-    </row>
-    <row r="87" spans="1:22">
+      <c r="W86" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="X86" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="Y86" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="Z86" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AA86" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="AB86" s="8">
+        <v>593774</v>
+      </c>
+      <c r="AC86" s="8">
+        <v>6232254</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -7303,8 +9289,29 @@
       <c r="V87" s="3">
         <v>6232249</v>
       </c>
-    </row>
-    <row r="88" spans="1:22">
+      <c r="W87" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="X87" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="Y87" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="Z87" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AA87" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="AB87" s="8">
+        <v>593774</v>
+      </c>
+      <c r="AC87" s="8">
+        <v>6232254</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -7371,8 +9378,29 @@
       <c r="V88" s="3">
         <v>6232232</v>
       </c>
-    </row>
-    <row r="89" spans="1:22">
+      <c r="W88" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="X88" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="Y88" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="Z88" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AA88" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="AB88" s="8">
+        <v>593774</v>
+      </c>
+      <c r="AC88" s="8">
+        <v>6232254</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -7439,8 +9467,29 @@
       <c r="V89" s="3">
         <v>6232241</v>
       </c>
-    </row>
-    <row r="90" spans="1:22">
+      <c r="W89" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="X89" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="Y89" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="Z89" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AA89" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="AB89" s="8">
+        <v>593774</v>
+      </c>
+      <c r="AC89" s="8">
+        <v>6232254</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -7507,8 +9556,29 @@
       <c r="V90" s="3">
         <v>6232231</v>
       </c>
-    </row>
-    <row r="91" spans="1:22">
+      <c r="W90" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="X90" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="Y90" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="Z90" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AA90" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="AB90" s="8">
+        <v>593774</v>
+      </c>
+      <c r="AC90" s="8">
+        <v>6232254</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -7575,8 +9645,29 @@
       <c r="V91" s="3">
         <v>6232330</v>
       </c>
-    </row>
-    <row r="92" spans="1:22">
+      <c r="W91" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="X91" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="Y91" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="Z91" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AA91" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="AB91" s="8">
+        <v>593774</v>
+      </c>
+      <c r="AC91" s="8">
+        <v>6232254</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -7643,8 +9734,29 @@
       <c r="V92" s="3">
         <v>6222143</v>
       </c>
-    </row>
-    <row r="93" spans="1:22">
+      <c r="W92" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="X92" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="Y92" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="Z92" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="AA92" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="AB92" s="7">
+        <v>598623</v>
+      </c>
+      <c r="AC92" s="7">
+        <v>6222128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -7711,8 +9823,29 @@
       <c r="V93" s="3">
         <v>6221888</v>
       </c>
-    </row>
-    <row r="94" spans="1:22">
+      <c r="W93" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="X93" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="Y93" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="Z93" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="AA93" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="AB93" s="7">
+        <v>598623</v>
+      </c>
+      <c r="AC93" s="7">
+        <v>6222128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -7779,8 +9912,29 @@
       <c r="V94" s="3">
         <v>6221604</v>
       </c>
-    </row>
-    <row r="95" spans="1:22">
+      <c r="W94" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="X94" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="Y94" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="Z94" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="AA94" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="AB94" s="7">
+        <v>598862</v>
+      </c>
+      <c r="AC94" s="7">
+        <v>6221754</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -7847,8 +10001,29 @@
       <c r="V95" s="3">
         <v>6221234</v>
       </c>
-    </row>
-    <row r="96" spans="1:22">
+      <c r="W95" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="X95" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="Y95" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="Z95" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="AA95" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AB95" s="7">
+        <v>599022</v>
+      </c>
+      <c r="AC95" s="7">
+        <v>6221349</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -7915,8 +10090,29 @@
       <c r="V96" s="3">
         <v>6220883</v>
       </c>
-    </row>
-    <row r="97" spans="1:22">
+      <c r="W96" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="X96" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="Y96" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="Z96" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AA96" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="AB96" s="7">
+        <v>599270</v>
+      </c>
+      <c r="AC96" s="7">
+        <v>6220801</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -7983,8 +10179,29 @@
       <c r="V97" s="3">
         <v>6220608</v>
       </c>
-    </row>
-    <row r="98" spans="1:22">
+      <c r="W97" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="X97" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="Y97" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="Z97" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AA97" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="AB97" s="7">
+        <v>599270</v>
+      </c>
+      <c r="AC97" s="7">
+        <v>6220801</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -8051,8 +10268,29 @@
       <c r="V98" s="3">
         <v>6220499</v>
       </c>
-    </row>
-    <row r="99" spans="1:22">
+      <c r="W98" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="X98" s="5">
+        <v>0.54</v>
+      </c>
+      <c r="Y98" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="Z98" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="AA98" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="AB98" s="7">
+        <v>599620</v>
+      </c>
+      <c r="AC98" s="7">
+        <v>6220494</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -8119,8 +10357,29 @@
       <c r="V99" s="3">
         <v>6220502</v>
       </c>
-    </row>
-    <row r="100" spans="1:22">
+      <c r="W99" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="X99" s="5">
+        <v>0.54</v>
+      </c>
+      <c r="Y99" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="Z99" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="AA99" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="AB99" s="7">
+        <v>599620</v>
+      </c>
+      <c r="AC99" s="7">
+        <v>6220494</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -8187,8 +10446,29 @@
       <c r="V100" s="3">
         <v>6220497</v>
       </c>
-    </row>
-    <row r="101" spans="1:22">
+      <c r="W100" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="X100" s="5">
+        <v>0.54</v>
+      </c>
+      <c r="Y100" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="Z100" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="AA100" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="AB100" s="7">
+        <v>599620</v>
+      </c>
+      <c r="AC100" s="7">
+        <v>6220494</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -8255,8 +10535,29 @@
       <c r="V101" s="3">
         <v>6220507</v>
       </c>
-    </row>
-    <row r="102" spans="1:22">
+      <c r="W101" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="X101" s="5">
+        <v>0.54</v>
+      </c>
+      <c r="Y101" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="Z101" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="AA101" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="AB101" s="7">
+        <v>599620</v>
+      </c>
+      <c r="AC101" s="7">
+        <v>6220494</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -8323,8 +10624,29 @@
       <c r="V102" s="3">
         <v>6220584</v>
       </c>
-    </row>
-    <row r="103" spans="1:22">
+      <c r="W102" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="X102" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="Y102" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Z102" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="AA102" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="AB102" s="7">
+        <v>600909</v>
+      </c>
+      <c r="AC102" s="7">
+        <v>6220312</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -8391,8 +10713,29 @@
       <c r="V103" s="3">
         <v>6220939</v>
       </c>
-    </row>
-    <row r="104" spans="1:22">
+      <c r="W103" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="X103" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="Y103" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Z103" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="AA103" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="AB103" s="7">
+        <v>600909</v>
+      </c>
+      <c r="AC103" s="7">
+        <v>6220312</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -8459,8 +10802,29 @@
       <c r="V104" s="3">
         <v>6221519</v>
       </c>
-    </row>
-    <row r="105" spans="1:22">
+      <c r="W104" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="X104" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="Y104" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Z104" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="AA104" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="AB104" s="7">
+        <v>600909</v>
+      </c>
+      <c r="AC104" s="7">
+        <v>6220312</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -8527,8 +10891,29 @@
       <c r="V105" s="3">
         <v>6221756</v>
       </c>
-    </row>
-    <row r="106" spans="1:22">
+      <c r="W105" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="X105" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="Y105" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Z105" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="AA105" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="AB105" s="7">
+        <v>600909</v>
+      </c>
+      <c r="AC105" s="7">
+        <v>6220312</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -8595,8 +10980,29 @@
       <c r="V106" s="3">
         <v>6221694</v>
       </c>
-    </row>
-    <row r="107" spans="1:22">
+      <c r="W106" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="X106" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="Y106" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Z106" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="AA106" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="AB106" s="7">
+        <v>600909</v>
+      </c>
+      <c r="AC106" s="7">
+        <v>6220312</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -8663,8 +11069,29 @@
       <c r="V107" s="3">
         <v>6220306</v>
       </c>
-    </row>
-    <row r="108" spans="1:22">
+      <c r="W107" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="X107" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="Y107" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="Z107" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AA107" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="AB107" s="7">
+        <v>600912</v>
+      </c>
+      <c r="AC107" s="7">
+        <v>6219982</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -8731,8 +11158,29 @@
       <c r="V108" s="3">
         <v>6219977</v>
       </c>
-    </row>
-    <row r="109" spans="1:22">
+      <c r="W108" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="X108" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="Y108" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="Z108" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AA108" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="AB108" s="7">
+        <v>600912</v>
+      </c>
+      <c r="AC108" s="7">
+        <v>6219982</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -8799,8 +11247,29 @@
       <c r="V109" s="3">
         <v>6219682</v>
       </c>
-    </row>
-    <row r="110" spans="1:22">
+      <c r="W109" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="X109" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="Y109" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="Z109" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="AA109" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="AB109" s="7">
+        <v>600925</v>
+      </c>
+      <c r="AC109" s="7">
+        <v>6219665</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -8867,8 +11336,29 @@
       <c r="V110" s="3">
         <v>6219390</v>
       </c>
-    </row>
-    <row r="111" spans="1:22">
+      <c r="W110" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="X110" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="Y110" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="Z110" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="AA110" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="AB110" s="7">
+        <v>600925</v>
+      </c>
+      <c r="AC110" s="7">
+        <v>6219665</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -8935,8 +11425,29 @@
       <c r="V111" s="3">
         <v>6219138</v>
       </c>
-    </row>
-    <row r="112" spans="1:22">
+      <c r="W111" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="X111" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="Y111" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="Z111" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="AA111" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="AB111" s="7">
+        <v>600925</v>
+      </c>
+      <c r="AC111" s="7">
+        <v>6219665</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -9003,8 +11514,29 @@
       <c r="V112" s="3">
         <v>6218852</v>
       </c>
-    </row>
-    <row r="113" spans="1:22">
+      <c r="W112" s="5">
+        <v>0.51</v>
+      </c>
+      <c r="X112" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="Y112" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="Z112" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AA112" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="AB112" s="7">
+        <v>600928</v>
+      </c>
+      <c r="AC112" s="7">
+        <v>6219375</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -9071,8 +11603,29 @@
       <c r="V113" s="3">
         <v>6218508</v>
       </c>
-    </row>
-    <row r="114" spans="1:22">
+      <c r="W113" s="5">
+        <v>0.51</v>
+      </c>
+      <c r="X113" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="Y113" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="Z113" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AA113" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="AB113" s="7">
+        <v>600928</v>
+      </c>
+      <c r="AC113" s="7">
+        <v>6219375</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -9139,8 +11692,29 @@
       <c r="V114" s="3">
         <v>6218085</v>
       </c>
-    </row>
-    <row r="115" spans="1:22">
+      <c r="W114" s="5">
+        <v>0.51</v>
+      </c>
+      <c r="X114" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="Y114" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="Z114" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AA114" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="AB114" s="7">
+        <v>600928</v>
+      </c>
+      <c r="AC114" s="7">
+        <v>6219375</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29">
       <c r="A115" t="s">
         <v>9</v>
       </c>
@@ -9207,8 +11781,29 @@
       <c r="V115" s="3">
         <v>6217762</v>
       </c>
-    </row>
-    <row r="116" spans="1:22">
+      <c r="W115" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="X115" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="Y115" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="Z115" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="AA115" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="AB115" s="8">
+        <v>600926</v>
+      </c>
+      <c r="AC115" s="8">
+        <v>6219322</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -9275,8 +11870,29 @@
       <c r="V116" s="3">
         <v>6217550</v>
       </c>
-    </row>
-    <row r="117" spans="1:22">
+      <c r="W116" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="X116" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="Y116" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="Z116" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="AA116" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="AB116" s="8">
+        <v>600926</v>
+      </c>
+      <c r="AC116" s="8">
+        <v>6219322</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -9343,8 +11959,29 @@
       <c r="V117" s="3">
         <v>6217250</v>
       </c>
-    </row>
-    <row r="118" spans="1:22">
+      <c r="W117" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="X117" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="Y117" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="Z117" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="AA117" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="AB117" s="8">
+        <v>600926</v>
+      </c>
+      <c r="AC117" s="8">
+        <v>6219322</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -9411,8 +12048,29 @@
       <c r="V118" s="3">
         <v>6217072</v>
       </c>
-    </row>
-    <row r="119" spans="1:22">
+      <c r="W118" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="X118" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="Y118" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="Z118" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="AA118" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="AB118" s="8">
+        <v>600926</v>
+      </c>
+      <c r="AC118" s="8">
+        <v>6219322</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -9479,8 +12137,29 @@
       <c r="V119" s="3">
         <v>6217031</v>
       </c>
-    </row>
-    <row r="120" spans="1:22">
+      <c r="W119" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="X119" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="Y119" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="Z119" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="AA119" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="AB119" s="8">
+        <v>600926</v>
+      </c>
+      <c r="AC119" s="8">
+        <v>6219322</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -9547,8 +12226,29 @@
       <c r="V120" s="3">
         <v>6217118</v>
       </c>
-    </row>
-    <row r="121" spans="1:22">
+      <c r="W120" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="X120" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="Y120" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="Z120" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="AA120" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="AB120" s="8">
+        <v>600926</v>
+      </c>
+      <c r="AC120" s="8">
+        <v>6219322</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -9615,8 +12315,29 @@
       <c r="V121" s="3">
         <v>6217184</v>
       </c>
-    </row>
-    <row r="122" spans="1:22">
+      <c r="W121" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="X121" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="Y121" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="Z121" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="AA121" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="AB121" s="8">
+        <v>600926</v>
+      </c>
+      <c r="AC121" s="8">
+        <v>6219322</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29">
       <c r="A122" t="s">
         <v>133</v>
       </c>
@@ -9683,8 +12404,29 @@
       <c r="V122" s="3">
         <v>6234640</v>
       </c>
-    </row>
-    <row r="123" spans="1:22">
+      <c r="W122" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X122" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y122" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Z122" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="AA122" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AB122" s="7">
+        <v>598755</v>
+      </c>
+      <c r="AC122" s="7">
+        <v>6234933</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29">
       <c r="A123" t="s">
         <v>133</v>
       </c>
@@ -9751,8 +12493,29 @@
       <c r="V123" s="3">
         <v>6235892</v>
       </c>
-    </row>
-    <row r="124" spans="1:22">
+      <c r="W123" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X123" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y123" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Z123" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AA123" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AB123" s="7">
+        <v>598697</v>
+      </c>
+      <c r="AC123" s="7">
+        <v>6236343</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29">
       <c r="A124" t="s">
         <v>133</v>
       </c>
@@ -9819,8 +12582,29 @@
       <c r="V124" s="3">
         <v>6236954</v>
       </c>
-    </row>
-    <row r="125" spans="1:22">
+      <c r="W124" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X124" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y124" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Z124" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AA124" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AB124" s="7">
+        <v>598697</v>
+      </c>
+      <c r="AC124" s="7">
+        <v>6236343</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29">
       <c r="A125" t="s">
         <v>133</v>
       </c>
@@ -9887,8 +12671,29 @@
       <c r="V125" s="3">
         <v>6235088</v>
       </c>
-    </row>
-    <row r="126" spans="1:22">
+      <c r="W125" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X125" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y125" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Z125" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="AA125" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AB125" s="7">
+        <v>598755</v>
+      </c>
+      <c r="AC125" s="7">
+        <v>6234933</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29">
       <c r="A126" t="s">
         <v>133</v>
       </c>
@@ -9955,8 +12760,29 @@
       <c r="V126" s="3">
         <v>6236198</v>
       </c>
-    </row>
-    <row r="127" spans="1:22">
+      <c r="W126" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X126" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y126" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Z126" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AA126" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AB126" s="7">
+        <v>598697</v>
+      </c>
+      <c r="AC126" s="7">
+        <v>6236343</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29">
       <c r="A127" t="s">
         <v>133</v>
       </c>
@@ -10023,8 +12849,29 @@
       <c r="V127" s="3">
         <v>6237011</v>
       </c>
-    </row>
-    <row r="128" spans="1:22">
+      <c r="W127" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X127" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y127" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Z127" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA127" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="AB127" s="7">
+        <v>599236</v>
+      </c>
+      <c r="AC127" s="7">
+        <v>6238820</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29">
       <c r="A128" t="s">
         <v>133</v>
       </c>
@@ -10091,8 +12938,29 @@
       <c r="V128" s="3">
         <v>6238117</v>
       </c>
-    </row>
-    <row r="129" spans="1:22">
+      <c r="W128" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X128" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y128" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Z128" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA128" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="AB128" s="7">
+        <v>599236</v>
+      </c>
+      <c r="AC128" s="7">
+        <v>6238820</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29">
       <c r="A129" t="s">
         <v>133</v>
       </c>
@@ -10159,8 +13027,29 @@
       <c r="V129" s="3">
         <v>6238859</v>
       </c>
-    </row>
-    <row r="130" spans="1:22">
+      <c r="W129" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X129" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y129" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Z129" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA129" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="AB129" s="7">
+        <v>599236</v>
+      </c>
+      <c r="AC129" s="7">
+        <v>6238820</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29">
       <c r="A130" t="s">
         <v>133</v>
       </c>
@@ -10227,8 +13116,29 @@
       <c r="V130" s="3">
         <v>6237307</v>
       </c>
-    </row>
-    <row r="131" spans="1:22">
+      <c r="W130" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X130" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y130" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Z130" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA130" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="AB130" s="7">
+        <v>599236</v>
+      </c>
+      <c r="AC130" s="7">
+        <v>6238820</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29">
       <c r="A131" t="s">
         <v>133</v>
       </c>
@@ -10295,8 +13205,29 @@
       <c r="V131" s="3">
         <v>6237570</v>
       </c>
-    </row>
-    <row r="132" spans="1:22">
+      <c r="W131" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X131" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y131" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Z131" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA131" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="AB131" s="7">
+        <v>599236</v>
+      </c>
+      <c r="AC131" s="7">
+        <v>6238820</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29">
       <c r="A132" t="s">
         <v>133</v>
       </c>
@@ -10363,8 +13294,29 @@
       <c r="V132" s="3">
         <v>6238304</v>
       </c>
-    </row>
-    <row r="133" spans="1:22">
+      <c r="W132" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X132" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y132" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Z132" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA132" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="AB132" s="7">
+        <v>599236</v>
+      </c>
+      <c r="AC132" s="7">
+        <v>6238820</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -10431,8 +13383,29 @@
       <c r="V133" s="3">
         <v>6239350</v>
       </c>
-    </row>
-    <row r="134" spans="1:22">
+      <c r="W133" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X133" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y133" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Z133" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA133" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="AB133" s="7">
+        <v>599236</v>
+      </c>
+      <c r="AC133" s="7">
+        <v>6238820</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -10499,8 +13472,29 @@
       <c r="V134" s="3">
         <v>6236701</v>
       </c>
-    </row>
-    <row r="135" spans="1:22">
+      <c r="W134" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X134" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y134" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Z134" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA134" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="AB134" s="7">
+        <v>599236</v>
+      </c>
+      <c r="AC134" s="7">
+        <v>6238820</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -10567,8 +13561,29 @@
       <c r="V135" s="3">
         <v>6235895</v>
       </c>
-    </row>
-    <row r="136" spans="1:22">
+      <c r="W135" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X135" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y135" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Z135" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA135" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="AB135" s="7">
+        <v>599236</v>
+      </c>
+      <c r="AC135" s="7">
+        <v>6238820</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29">
       <c r="A136" t="s">
         <v>133</v>
       </c>
@@ -10635,8 +13650,29 @@
       <c r="V136" s="3">
         <v>6234832</v>
       </c>
-    </row>
-    <row r="137" spans="1:22">
+      <c r="W136" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X136" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y136" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Z136" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA136" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="AB136" s="7">
+        <v>599236</v>
+      </c>
+      <c r="AC136" s="7">
+        <v>6238820</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29">
       <c r="A137" t="s">
         <v>133</v>
       </c>
@@ -10703,8 +13739,29 @@
       <c r="V137" s="3">
         <v>6236394</v>
       </c>
-    </row>
-    <row r="138" spans="1:22">
+      <c r="W137" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X137" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y137" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Z137" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA137" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="AB137" s="7">
+        <v>599236</v>
+      </c>
+      <c r="AC137" s="7">
+        <v>6238820</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29">
       <c r="A138" t="s">
         <v>133</v>
       </c>
@@ -10771,8 +13828,29 @@
       <c r="V138" s="3">
         <v>6235364</v>
       </c>
-    </row>
-    <row r="139" spans="1:22">
+      <c r="W138" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X138" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y138" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Z138" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA138" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="AB138" s="7">
+        <v>599236</v>
+      </c>
+      <c r="AC138" s="7">
+        <v>6238820</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29">
       <c r="A139" t="s">
         <v>133</v>
       </c>
@@ -10839,8 +13917,29 @@
       <c r="V139" s="3">
         <v>6234515</v>
       </c>
-    </row>
-    <row r="140" spans="1:22">
+      <c r="W139" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X139" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y139" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="Z139" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AA139" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AB139" s="7">
+        <v>600074</v>
+      </c>
+      <c r="AC139" s="7">
+        <v>6236329</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29">
       <c r="A140" t="s">
         <v>133</v>
       </c>
@@ -10907,8 +14006,29 @@
       <c r="V140" s="3">
         <v>6233041</v>
       </c>
-    </row>
-    <row r="141" spans="1:22">
+      <c r="W140" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X140" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y140" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="Z140" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AA140" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="AB140" s="7">
+        <v>601812</v>
+      </c>
+      <c r="AC140" s="7">
+        <v>6234571</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29">
       <c r="A141" t="s">
         <v>133</v>
       </c>
@@ -10975,8 +14095,29 @@
       <c r="V141" s="3">
         <v>6233896</v>
       </c>
-    </row>
-    <row r="142" spans="1:22">
+      <c r="W141" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X141" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y141" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="Z141" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AA141" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="AB141" s="7">
+        <v>601812</v>
+      </c>
+      <c r="AC141" s="7">
+        <v>6234571</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29">
       <c r="A142" t="s">
         <v>133</v>
       </c>
@@ -11043,8 +14184,29 @@
       <c r="V142" s="3">
         <v>6234912</v>
       </c>
-    </row>
-    <row r="143" spans="1:22">
+      <c r="W142" s="5">
+        <v>1</v>
+      </c>
+      <c r="X142" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y142" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="Z142" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AA142" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AB142" s="7">
+        <v>601810</v>
+      </c>
+      <c r="AC142" s="7">
+        <v>6233644</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29">
       <c r="A143" t="s">
         <v>133</v>
       </c>
@@ -11111,8 +14273,29 @@
       <c r="V143" s="3">
         <v>6233405</v>
       </c>
-    </row>
-    <row r="144" spans="1:22">
+      <c r="W143" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X143" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y143" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="Z143" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AA143" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="AB143" s="7">
+        <v>601812</v>
+      </c>
+      <c r="AC143" s="7">
+        <v>6234571</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29">
       <c r="A144" t="s">
         <v>133</v>
       </c>
@@ -11179,8 +14362,29 @@
       <c r="V144" s="3">
         <v>6234223</v>
       </c>
-    </row>
-    <row r="145" spans="1:22">
+      <c r="W144" s="5">
+        <v>1</v>
+      </c>
+      <c r="X144" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y144" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="Z144" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AA144" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AB144" s="7">
+        <v>601810</v>
+      </c>
+      <c r="AC144" s="7">
+        <v>6233644</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29">
       <c r="A145" t="s">
         <v>133</v>
       </c>
@@ -11247,8 +14451,29 @@
       <c r="V145" s="3">
         <v>6235210</v>
       </c>
-    </row>
-    <row r="146" spans="1:22">
+      <c r="W145" s="5">
+        <v>1</v>
+      </c>
+      <c r="X145" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y145" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="Z145" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AA145" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AB145" s="7">
+        <v>601810</v>
+      </c>
+      <c r="AC145" s="7">
+        <v>6233644</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29">
       <c r="A146" t="s">
         <v>133</v>
       </c>
@@ -11315,8 +14540,29 @@
       <c r="V146" s="3">
         <v>6231917</v>
       </c>
-    </row>
-    <row r="147" spans="1:22">
+      <c r="W146" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="X146" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Y146" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Z146" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="AA146" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AB146" s="7">
+        <v>599437</v>
+      </c>
+      <c r="AC146" s="7">
+        <v>6231207</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29">
       <c r="A147" t="s">
         <v>133</v>
       </c>
@@ -11383,8 +14629,29 @@
       <c r="V147" s="3">
         <v>6231330</v>
       </c>
-    </row>
-    <row r="148" spans="1:22">
+      <c r="W147" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X147" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y147" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="Z147" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AA147" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AB147" s="7">
+        <v>600074</v>
+      </c>
+      <c r="AC147" s="7">
+        <v>6236329</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29">
       <c r="A148" t="s">
         <v>133</v>
       </c>
@@ -11451,8 +14718,29 @@
       <c r="V148" s="3">
         <v>6230707</v>
       </c>
-    </row>
-    <row r="149" spans="1:22">
+      <c r="W148" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X148" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y148" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="Z148" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AA148" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AB148" s="7">
+        <v>600074</v>
+      </c>
+      <c r="AC148" s="7">
+        <v>6236329</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29">
       <c r="A149" t="s">
         <v>133</v>
       </c>
@@ -11519,8 +14807,29 @@
       <c r="V149" s="3">
         <v>6231787</v>
       </c>
-    </row>
-    <row r="150" spans="1:22">
+      <c r="W149" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X149" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y149" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="Z149" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AA149" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AB149" s="7">
+        <v>600074</v>
+      </c>
+      <c r="AC149" s="7">
+        <v>6236329</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29">
       <c r="A150" t="s">
         <v>133</v>
       </c>
@@ -11587,8 +14896,29 @@
       <c r="V150" s="3">
         <v>6231170</v>
       </c>
-    </row>
-    <row r="151" spans="1:22">
+      <c r="W150" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X150" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y150" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="Z150" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AA150" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AB150" s="7">
+        <v>600074</v>
+      </c>
+      <c r="AC150" s="7">
+        <v>6236329</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29">
       <c r="A151" t="s">
         <v>133</v>
       </c>
@@ -11655,8 +14985,29 @@
       <c r="V151" s="3">
         <v>6230530</v>
       </c>
-    </row>
-    <row r="152" spans="1:22">
+      <c r="W151" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X151" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y151" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="Z151" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AA151" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AB151" s="7">
+        <v>600074</v>
+      </c>
+      <c r="AC151" s="7">
+        <v>6236329</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29">
       <c r="A152" t="s">
         <v>133</v>
       </c>
@@ -11723,8 +15074,29 @@
       <c r="V152" s="3">
         <v>6229943</v>
       </c>
-    </row>
-    <row r="153" spans="1:22">
+      <c r="W152" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="X152" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Y152" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Z152" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="AA152" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AB152" s="7">
+        <v>599437</v>
+      </c>
+      <c r="AC152" s="7">
+        <v>6231207</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29">
       <c r="A153" t="s">
         <v>133</v>
       </c>
@@ -11791,8 +15163,29 @@
       <c r="V153" s="3">
         <v>6229425</v>
       </c>
-    </row>
-    <row r="154" spans="1:22">
+      <c r="W153" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X153" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y153" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Z153" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="AA153" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AB153" s="7">
+        <v>596855</v>
+      </c>
+      <c r="AC153" s="7">
+        <v>6230131</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29">
       <c r="A154" t="s">
         <v>133</v>
       </c>
@@ -11859,8 +15252,29 @@
       <c r="V154" s="3">
         <v>6230700</v>
       </c>
-    </row>
-    <row r="155" spans="1:22">
+      <c r="W154" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X154" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y154" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Z154" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="AA154" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AB154" s="7">
+        <v>596855</v>
+      </c>
+      <c r="AC154" s="7">
+        <v>6230131</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29">
       <c r="A155" t="s">
         <v>133</v>
       </c>
@@ -11927,8 +15341,29 @@
       <c r="V155" s="3">
         <v>6229774</v>
       </c>
-    </row>
-    <row r="156" spans="1:22">
+      <c r="W155" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="X155" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Y155" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Z155" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="AA155" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AB155" s="7">
+        <v>599437</v>
+      </c>
+      <c r="AC155" s="7">
+        <v>6231207</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29">
       <c r="A156" t="s">
         <v>133</v>
       </c>
@@ -11995,8 +15430,29 @@
       <c r="V156" s="3">
         <v>6229789</v>
       </c>
-    </row>
-    <row r="157" spans="1:22">
+      <c r="W156" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X156" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y156" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Z156" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="AA156" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AB156" s="7">
+        <v>596855</v>
+      </c>
+      <c r="AC156" s="7">
+        <v>6230131</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29">
       <c r="A157" t="s">
         <v>133</v>
       </c>
@@ -12063,8 +15519,29 @@
       <c r="V157" s="3">
         <v>6231087</v>
       </c>
-    </row>
-    <row r="158" spans="1:22">
+      <c r="W157" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X157" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y157" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Z157" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="AA157" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AB157" s="7">
+        <v>596855</v>
+      </c>
+      <c r="AC157" s="7">
+        <v>6230131</v>
+      </c>
+    </row>
+    <row r="158" spans="1:29">
       <c r="A158" t="s">
         <v>133</v>
       </c>
@@ -12131,8 +15608,29 @@
       <c r="V158" s="3">
         <v>6231872</v>
       </c>
-    </row>
-    <row r="159" spans="1:22">
+      <c r="W158" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X158" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y158" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Z158" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AA158" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="AB158" s="7">
+        <v>601015</v>
+      </c>
+      <c r="AC158" s="7">
+        <v>6231805</v>
+      </c>
+    </row>
+    <row r="159" spans="1:29">
       <c r="A159" t="s">
         <v>133</v>
       </c>
@@ -12199,8 +15697,29 @@
       <c r="V159" s="3">
         <v>6230297</v>
       </c>
-    </row>
-    <row r="160" spans="1:22">
+      <c r="W159" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X159" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y159" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Z159" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AA159" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="AB159" s="7">
+        <v>601015</v>
+      </c>
+      <c r="AC159" s="7">
+        <v>6231805</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29">
       <c r="A160" t="s">
         <v>133</v>
       </c>
@@ -12267,8 +15786,29 @@
       <c r="V160" s="3">
         <v>6231468</v>
       </c>
-    </row>
-    <row r="161" spans="1:22">
+      <c r="W160" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X160" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y160" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Z160" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AA160" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="AB160" s="7">
+        <v>601015</v>
+      </c>
+      <c r="AC160" s="7">
+        <v>6231805</v>
+      </c>
+    </row>
+    <row r="161" spans="1:29">
       <c r="A161" t="s">
         <v>133</v>
       </c>
@@ -12335,8 +15875,29 @@
       <c r="V161" s="3">
         <v>6230177</v>
       </c>
-    </row>
-    <row r="162" spans="1:22">
+      <c r="W161" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X161" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y161" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="Z161" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AA161" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AB161" s="7">
+        <v>601060</v>
+      </c>
+      <c r="AC161" s="7">
+        <v>6230569</v>
+      </c>
+    </row>
+    <row r="162" spans="1:29">
       <c r="A162" t="s">
         <v>133</v>
       </c>
@@ -12403,8 +15964,29 @@
       <c r="V162" s="3">
         <v>6232255</v>
       </c>
-    </row>
-    <row r="163" spans="1:22">
+      <c r="W162" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X162" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y162" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Z162" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="AA162" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB162" s="8">
+        <v>601351</v>
+      </c>
+      <c r="AC162" s="8">
+        <v>6230127</v>
+      </c>
+    </row>
+    <row r="163" spans="1:29">
       <c r="A163" t="s">
         <v>133</v>
       </c>
@@ -12471,8 +16053,29 @@
       <c r="V163" s="3">
         <v>6231963</v>
       </c>
-    </row>
-    <row r="164" spans="1:22">
+      <c r="W163" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X163" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y163" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Z163" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="AA163" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB163" s="8">
+        <v>601351</v>
+      </c>
+      <c r="AC163" s="8">
+        <v>6230127</v>
+      </c>
+    </row>
+    <row r="164" spans="1:29">
       <c r="A164" t="s">
         <v>133</v>
       </c>
@@ -12539,8 +16142,29 @@
       <c r="V164" s="3">
         <v>6231675</v>
       </c>
-    </row>
-    <row r="165" spans="1:22">
+      <c r="W164" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X164" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y164" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Z164" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="AA164" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB164" s="8">
+        <v>601351</v>
+      </c>
+      <c r="AC164" s="8">
+        <v>6230127</v>
+      </c>
+    </row>
+    <row r="165" spans="1:29">
       <c r="A165" t="s">
         <v>133</v>
       </c>
@@ -12607,8 +16231,29 @@
       <c r="V165" s="3">
         <v>6231436</v>
       </c>
-    </row>
-    <row r="166" spans="1:22">
+      <c r="W165" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X165" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y165" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Z165" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="AA165" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB165" s="8">
+        <v>601351</v>
+      </c>
+      <c r="AC165" s="8">
+        <v>6230127</v>
+      </c>
+    </row>
+    <row r="166" spans="1:29">
       <c r="A166" t="s">
         <v>133</v>
       </c>
@@ -12675,8 +16320,29 @@
       <c r="V166" s="3">
         <v>6231135</v>
       </c>
-    </row>
-    <row r="167" spans="1:22">
+      <c r="W166" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X166" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y166" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Z166" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="AA166" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB166" s="8">
+        <v>601351</v>
+      </c>
+      <c r="AC166" s="8">
+        <v>6230127</v>
+      </c>
+    </row>
+    <row r="167" spans="1:29">
       <c r="A167" t="s">
         <v>133</v>
       </c>
@@ -12743,8 +16409,29 @@
       <c r="V167" s="3">
         <v>6230790</v>
       </c>
-    </row>
-    <row r="168" spans="1:22">
+      <c r="W167" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X167" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y167" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Z167" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="AA167" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB167" s="8">
+        <v>601351</v>
+      </c>
+      <c r="AC167" s="8">
+        <v>6230127</v>
+      </c>
+    </row>
+    <row r="168" spans="1:29">
       <c r="A168" t="s">
         <v>133</v>
       </c>
@@ -12811,8 +16498,29 @@
       <c r="V168" s="3">
         <v>6230544</v>
       </c>
-    </row>
-    <row r="169" spans="1:22">
+      <c r="W168" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X168" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y168" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Z168" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="AA168" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB168" s="8">
+        <v>601351</v>
+      </c>
+      <c r="AC168" s="8">
+        <v>6230127</v>
+      </c>
+    </row>
+    <row r="169" spans="1:29">
       <c r="A169" t="s">
         <v>133</v>
       </c>
@@ -12879,8 +16587,29 @@
       <c r="V169" s="3">
         <v>6230263</v>
       </c>
-    </row>
-    <row r="170" spans="1:22">
+      <c r="W169" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X169" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y169" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Z169" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="AA169" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB169" s="8">
+        <v>601351</v>
+      </c>
+      <c r="AC169" s="8">
+        <v>6230127</v>
+      </c>
+    </row>
+    <row r="170" spans="1:29">
       <c r="A170" t="s">
         <v>133</v>
       </c>
@@ -12947,8 +16676,29 @@
       <c r="V170" s="3">
         <v>6230001</v>
       </c>
-    </row>
-    <row r="171" spans="1:22">
+      <c r="W170" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X170" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y170" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Z170" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="AA170" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB170" s="8">
+        <v>601351</v>
+      </c>
+      <c r="AC170" s="8">
+        <v>6230127</v>
+      </c>
+    </row>
+    <row r="171" spans="1:29">
       <c r="A171" t="s">
         <v>133</v>
       </c>
@@ -13015,8 +16765,29 @@
       <c r="V171" s="3">
         <v>6229540</v>
       </c>
-    </row>
-    <row r="172" spans="1:22">
+      <c r="W171" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X171" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y171" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Z171" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="AA171" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB171" s="8">
+        <v>601351</v>
+      </c>
+      <c r="AC171" s="8">
+        <v>6230127</v>
+      </c>
+    </row>
+    <row r="172" spans="1:29">
       <c r="A172" t="s">
         <v>133</v>
       </c>
@@ -13083,8 +16854,29 @@
       <c r="V172" s="3">
         <v>6229236</v>
       </c>
-    </row>
-    <row r="173" spans="1:22">
+      <c r="W172" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X172" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y172" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Z172" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="AA172" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB172" s="8">
+        <v>601351</v>
+      </c>
+      <c r="AC172" s="8">
+        <v>6230127</v>
+      </c>
+    </row>
+    <row r="173" spans="1:29">
       <c r="A173" t="s">
         <v>133</v>
       </c>
@@ -13151,8 +16943,29 @@
       <c r="V173" s="3">
         <v>6228637</v>
       </c>
-    </row>
-    <row r="174" spans="1:22">
+      <c r="W173" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X173" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y173" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Z173" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="AA173" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB173" s="8">
+        <v>601351</v>
+      </c>
+      <c r="AC173" s="8">
+        <v>6230127</v>
+      </c>
+    </row>
+    <row r="174" spans="1:29">
       <c r="A174" t="s">
         <v>133</v>
       </c>
@@ -13219,8 +17032,29 @@
       <c r="V174" s="3">
         <v>6228371</v>
       </c>
-    </row>
-    <row r="175" spans="1:22">
+      <c r="W174" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X174" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y174" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Z174" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="AA174" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB174" s="8">
+        <v>601351</v>
+      </c>
+      <c r="AC174" s="8">
+        <v>6230127</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29">
       <c r="A175" t="s">
         <v>133</v>
       </c>
@@ -13287,8 +17121,29 @@
       <c r="V175" s="3">
         <v>6228109</v>
       </c>
-    </row>
-    <row r="176" spans="1:22">
+      <c r="W175" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X175" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y175" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Z175" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="AA175" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB175" s="8">
+        <v>601351</v>
+      </c>
+      <c r="AC175" s="8">
+        <v>6230127</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29">
       <c r="A176" t="s">
         <v>133</v>
       </c>
@@ -13355,8 +17210,29 @@
       <c r="V176" s="3">
         <v>6232372</v>
       </c>
-    </row>
-    <row r="177" spans="1:22">
+      <c r="W176" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X176" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y176" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="Z176" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AA176" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB176" s="8">
+        <v>600128</v>
+      </c>
+      <c r="AC176" s="8">
+        <v>6236426</v>
+      </c>
+    </row>
+    <row r="177" spans="1:29">
       <c r="A177" t="s">
         <v>133</v>
       </c>
@@ -13423,8 +17299,29 @@
       <c r="V177" s="3">
         <v>6232458</v>
       </c>
-    </row>
-    <row r="178" spans="1:22">
+      <c r="W177" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X177" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y177" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="Z177" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AA177" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB177" s="8">
+        <v>600128</v>
+      </c>
+      <c r="AC177" s="8">
+        <v>6236426</v>
+      </c>
+    </row>
+    <row r="178" spans="1:29">
       <c r="A178" t="s">
         <v>133</v>
       </c>
@@ -13491,8 +17388,29 @@
       <c r="V178" s="3">
         <v>6232314</v>
       </c>
-    </row>
-    <row r="179" spans="1:22">
+      <c r="W178" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="X178" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="Y178" s="5">
+        <v>0.51</v>
+      </c>
+      <c r="Z178" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AA178" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AB178" s="8">
+        <v>601832</v>
+      </c>
+      <c r="AC178" s="8">
+        <v>6233405</v>
+      </c>
+    </row>
+    <row r="179" spans="1:29">
       <c r="A179" s="2" t="s">
         <v>133</v>
       </c>
@@ -13559,8 +17477,29 @@
       <c r="V179" s="4">
         <v>6232356</v>
       </c>
-    </row>
-    <row r="180" spans="1:22">
+      <c r="W179" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="X179" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="Y179" s="5">
+        <v>0.51</v>
+      </c>
+      <c r="Z179" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AA179" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AB179" s="8">
+        <v>601832</v>
+      </c>
+      <c r="AC179" s="8">
+        <v>6233405</v>
+      </c>
+    </row>
+    <row r="180" spans="1:29">
       <c r="A180" t="s">
         <v>133</v>
       </c>
@@ -13627,8 +17566,29 @@
       <c r="V180" s="4">
         <v>6232367</v>
       </c>
-    </row>
-    <row r="181" spans="1:22">
+      <c r="W180" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="X180" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="Y180" s="5">
+        <v>0.51</v>
+      </c>
+      <c r="Z180" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AA180" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AB180" s="8">
+        <v>601832</v>
+      </c>
+      <c r="AC180" s="8">
+        <v>6233405</v>
+      </c>
+    </row>
+    <row r="181" spans="1:29">
       <c r="A181" t="s">
         <v>133</v>
       </c>
@@ -13695,8 +17655,29 @@
       <c r="V181" s="4">
         <v>6232307</v>
       </c>
-    </row>
-    <row r="182" spans="1:22">
+      <c r="W181" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="X181" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="Y181" s="5">
+        <v>0.51</v>
+      </c>
+      <c r="Z181" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AA181" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AB181" s="8">
+        <v>601832</v>
+      </c>
+      <c r="AC181" s="8">
+        <v>6233405</v>
+      </c>
+    </row>
+    <row r="182" spans="1:29">
       <c r="A182" t="s">
         <v>133</v>
       </c>
@@ -13763,8 +17744,29 @@
       <c r="V182" s="4">
         <v>6232362</v>
       </c>
-    </row>
-    <row r="183" spans="1:22">
+      <c r="W182" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="X182" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="Y182" s="5">
+        <v>0.51</v>
+      </c>
+      <c r="Z182" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AA182" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AB182" s="8">
+        <v>601832</v>
+      </c>
+      <c r="AC182" s="8">
+        <v>6233405</v>
+      </c>
+    </row>
+    <row r="183" spans="1:29">
       <c r="A183" t="s">
         <v>133</v>
       </c>
@@ -13831,8 +17833,29 @@
       <c r="V183" s="4">
         <v>6232644</v>
       </c>
-    </row>
-    <row r="184" spans="1:22">
+      <c r="W183" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="X183" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="Y183" s="5">
+        <v>0.51</v>
+      </c>
+      <c r="Z183" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AA183" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AB183" s="8">
+        <v>601832</v>
+      </c>
+      <c r="AC183" s="8">
+        <v>6233405</v>
+      </c>
+    </row>
+    <row r="184" spans="1:29">
       <c r="A184" t="s">
         <v>133</v>
       </c>
@@ -13899,8 +17922,29 @@
       <c r="V184" s="4">
         <v>6232666</v>
       </c>
-    </row>
-    <row r="185" spans="1:22">
+      <c r="W184" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="X184" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="Y184" s="5">
+        <v>0.51</v>
+      </c>
+      <c r="Z184" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AA184" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AB184" s="8">
+        <v>601832</v>
+      </c>
+      <c r="AC184" s="8">
+        <v>6233405</v>
+      </c>
+    </row>
+    <row r="185" spans="1:29">
       <c r="A185" t="s">
         <v>133</v>
       </c>
@@ -13967,8 +18011,29 @@
       <c r="V185" s="4">
         <v>6232690</v>
       </c>
-    </row>
-    <row r="186" spans="1:22">
+      <c r="W185" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="X185" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="Y185" s="5">
+        <v>0.51</v>
+      </c>
+      <c r="Z185" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AA185" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AB185" s="8">
+        <v>601832</v>
+      </c>
+      <c r="AC185" s="8">
+        <v>6233405</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29">
       <c r="A186" t="s">
         <v>133</v>
       </c>
@@ -14035,8 +18100,29 @@
       <c r="V186" s="4">
         <v>6232681</v>
       </c>
-    </row>
-    <row r="187" spans="1:22">
+      <c r="W186" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="X186" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="Y186" s="5">
+        <v>0.51</v>
+      </c>
+      <c r="Z186" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AA186" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AB186" s="8">
+        <v>601832</v>
+      </c>
+      <c r="AC186" s="8">
+        <v>6233405</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29">
       <c r="A187" t="s">
         <v>133</v>
       </c>
@@ -14103,8 +18189,29 @@
       <c r="V187" s="4">
         <v>6232647</v>
       </c>
-    </row>
-    <row r="188" spans="1:22">
+      <c r="W187" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X187" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y187" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="Z187" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AA187" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB187" s="8">
+        <v>600128</v>
+      </c>
+      <c r="AC187" s="8">
+        <v>6236426</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29">
       <c r="A188" t="s">
         <v>133</v>
       </c>
@@ -14171,8 +18278,29 @@
       <c r="V188" s="4">
         <v>6232847</v>
       </c>
-    </row>
-    <row r="189" spans="1:22">
+      <c r="W188" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X188" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y188" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="Z188" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AA188" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB188" s="8">
+        <v>600128</v>
+      </c>
+      <c r="AC188" s="8">
+        <v>6236426</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29">
       <c r="A189" t="s">
         <v>133</v>
       </c>
@@ -14239,8 +18367,29 @@
       <c r="V189" s="4">
         <v>6233138</v>
       </c>
-    </row>
-    <row r="190" spans="1:22">
+      <c r="W189" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X189" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y189" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="Z189" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AA189" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB189" s="8">
+        <v>600128</v>
+      </c>
+      <c r="AC189" s="8">
+        <v>6236426</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29">
       <c r="A190" t="s">
         <v>133</v>
       </c>
@@ -14307,8 +18456,29 @@
       <c r="V190" s="4">
         <v>6233357</v>
       </c>
-    </row>
-    <row r="191" spans="1:22">
+      <c r="W190" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X190" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y190" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="Z190" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AA190" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB190" s="8">
+        <v>600128</v>
+      </c>
+      <c r="AC190" s="8">
+        <v>6236426</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29">
       <c r="A191" t="s">
         <v>133</v>
       </c>
@@ -14375,13 +18545,34 @@
       <c r="V191" s="4">
         <v>6233835</v>
       </c>
+      <c r="W191" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X191" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y191" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="Z191" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AA191" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AB191" s="8">
+        <v>600128</v>
+      </c>
+      <c r="AC191" s="8">
+        <v>6236426</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V191">
+  <autoFilter ref="A1:AC1">
     <filterColumn colId="2"/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/data/ecological_attributes.xlsx
+++ b/data/ecological_attributes.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$AD$191</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$AE$191</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -505,12 +505,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="AE1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Florencia Miguel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+name of modules where trees are when doing modularity index</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="235">
   <si>
     <t>trees</t>
   </si>
@@ -1191,6 +1215,30 @@
   </si>
   <si>
     <t>H.shannon</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>modules</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -1568,11 +1616,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD191"/>
+  <dimension ref="A1:AE191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1597,8 +1645,8 @@
     <col min="18" max="18" width="7.28515625" customWidth="1"/>
     <col min="19" max="19" width="6.5703125" customWidth="1"/>
     <col min="20" max="21" width="7" customWidth="1"/>
-    <col min="22" max="22" width="8.7109375" style="3" customWidth="1"/>
-    <col min="23" max="23" width="9.42578125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="8" style="3" customWidth="1"/>
     <col min="24" max="24" width="4.85546875" customWidth="1"/>
     <col min="25" max="25" width="5.28515625" customWidth="1"/>
     <col min="26" max="26" width="4.7109375" customWidth="1"/>
@@ -1606,9 +1654,10 @@
     <col min="28" max="28" width="4.5703125" customWidth="1"/>
     <col min="29" max="29" width="7.5703125" customWidth="1"/>
     <col min="30" max="30" width="9.42578125" customWidth="1"/>
+    <col min="31" max="31" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1699,8 +1748,11 @@
       <c r="AD1" t="s">
         <v>225</v>
       </c>
+      <c r="AE1" t="s">
+        <v>233</v>
+      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1791,8 +1843,11 @@
       <c r="AD2" s="7">
         <v>6232314</v>
       </c>
+      <c r="AE2" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1883,8 +1938,11 @@
       <c r="AD3" s="7">
         <v>6232314</v>
       </c>
+      <c r="AE3" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1975,8 +2033,11 @@
       <c r="AD4" s="7">
         <v>6232314</v>
       </c>
+      <c r="AE4" t="s">
+        <v>232</v>
+      </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2067,8 +2128,11 @@
       <c r="AD5" s="7">
         <v>6232314</v>
       </c>
+      <c r="AE5" t="s">
+        <v>232</v>
+      </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2159,8 +2223,11 @@
       <c r="AD6" s="7">
         <v>6232314</v>
       </c>
+      <c r="AE6" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2251,8 +2318,11 @@
       <c r="AD7" s="7">
         <v>6232314</v>
       </c>
+      <c r="AE7" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2343,8 +2413,11 @@
       <c r="AD8" s="7">
         <v>6232314</v>
       </c>
+      <c r="AE8" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2435,8 +2508,11 @@
       <c r="AD9" s="7">
         <v>6232314</v>
       </c>
+      <c r="AE9" t="s">
+        <v>232</v>
+      </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2527,8 +2603,11 @@
       <c r="AD10" s="7">
         <v>6231077</v>
       </c>
+      <c r="AE10" t="s">
+        <v>231</v>
+      </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2619,8 +2698,11 @@
       <c r="AD11" s="7">
         <v>6231077</v>
       </c>
+      <c r="AE11" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2711,8 +2793,11 @@
       <c r="AD12" s="7">
         <v>6231077</v>
       </c>
+      <c r="AE12" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -2803,8 +2888,11 @@
       <c r="AD13" s="7">
         <v>6231077</v>
       </c>
+      <c r="AE13" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -2895,8 +2983,11 @@
       <c r="AD14" s="7">
         <v>6231077</v>
       </c>
+      <c r="AE14" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2987,8 +3078,11 @@
       <c r="AD15" s="7">
         <v>6231077</v>
       </c>
+      <c r="AE15" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -3079,8 +3173,11 @@
       <c r="AD16" s="7">
         <v>6231077</v>
       </c>
+      <c r="AE16" t="s">
+        <v>232</v>
+      </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -3171,8 +3268,11 @@
       <c r="AD17" s="7">
         <v>6231077</v>
       </c>
+      <c r="AE17" t="s">
+        <v>232</v>
+      </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -3263,8 +3363,11 @@
       <c r="AD18" s="7">
         <v>6229175</v>
       </c>
+      <c r="AE18" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -3355,8 +3458,11 @@
       <c r="AD19" s="7">
         <v>6229175</v>
       </c>
+      <c r="AE19" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -3447,8 +3553,11 @@
       <c r="AD20" s="7">
         <v>6229175</v>
       </c>
+      <c r="AE20" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -3539,8 +3648,11 @@
       <c r="AD21" s="7">
         <v>6229175</v>
       </c>
+      <c r="AE21" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -3631,8 +3743,11 @@
       <c r="AD22" s="7">
         <v>6229175</v>
       </c>
+      <c r="AE22" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3723,8 +3838,11 @@
       <c r="AD23" s="7">
         <v>6230727</v>
       </c>
+      <c r="AE23" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -3815,8 +3933,11 @@
       <c r="AD24" s="7">
         <v>6230727</v>
       </c>
+      <c r="AE24" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -3907,8 +4028,11 @@
       <c r="AD25" s="7">
         <v>6230727</v>
       </c>
+      <c r="AE25" t="s">
+        <v>232</v>
+      </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -3999,8 +4123,11 @@
       <c r="AD26" s="7">
         <v>6228247</v>
       </c>
+      <c r="AE26" t="s">
+        <v>232</v>
+      </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:31">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -4091,8 +4218,11 @@
       <c r="AD27" s="7">
         <v>6228247</v>
       </c>
+      <c r="AE27" t="s">
+        <v>231</v>
+      </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:31">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -4183,8 +4313,11 @@
       <c r="AD28" s="7">
         <v>6228247</v>
       </c>
+      <c r="AE28" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:31">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -4275,8 +4408,11 @@
       <c r="AD29" s="7">
         <v>6228247</v>
       </c>
+      <c r="AE29" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:31">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -4367,8 +4503,11 @@
       <c r="AD30" s="7">
         <v>6228229</v>
       </c>
+      <c r="AE30" t="s">
+        <v>232</v>
+      </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:31">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -4459,8 +4598,11 @@
       <c r="AD31" s="7">
         <v>6228229</v>
       </c>
+      <c r="AE31" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:31">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -4551,8 +4693,11 @@
       <c r="AD32" s="7">
         <v>6228229</v>
       </c>
+      <c r="AE32" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:31">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -4643,8 +4788,11 @@
       <c r="AD33" s="7">
         <v>6228229</v>
       </c>
+      <c r="AE33" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:31">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -4735,8 +4883,11 @@
       <c r="AD34" s="7">
         <v>6229959</v>
       </c>
+      <c r="AE34" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:31">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -4827,8 +4978,11 @@
       <c r="AD35" s="7">
         <v>6229959</v>
       </c>
+      <c r="AE35" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:31">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -4919,8 +5073,11 @@
       <c r="AD36" s="7">
         <v>6229959</v>
       </c>
+      <c r="AE36" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:31">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -5011,8 +5168,11 @@
       <c r="AD37" s="7">
         <v>6229959</v>
       </c>
+      <c r="AE37" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:31">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -5103,8 +5263,11 @@
       <c r="AD38" s="7">
         <v>6229959</v>
       </c>
+      <c r="AE38" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:31">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -5195,8 +5358,11 @@
       <c r="AD39" s="7">
         <v>6229959</v>
       </c>
+      <c r="AE39" t="s">
+        <v>231</v>
+      </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:31">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -5287,8 +5453,11 @@
       <c r="AD40" s="7">
         <v>6229959</v>
       </c>
+      <c r="AE40" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:31">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -5379,8 +5548,11 @@
       <c r="AD41" s="7">
         <v>6229959</v>
       </c>
+      <c r="AE41" t="s">
+        <v>231</v>
+      </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:31">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -5471,8 +5643,11 @@
       <c r="AD42" s="7">
         <v>6230231</v>
       </c>
+      <c r="AE42" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:31">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -5563,8 +5738,11 @@
       <c r="AD43" s="7">
         <v>6230231</v>
       </c>
+      <c r="AE43" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:31">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -5655,8 +5833,11 @@
       <c r="AD44" s="7">
         <v>6230231</v>
       </c>
+      <c r="AE44" t="s">
+        <v>232</v>
+      </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:31">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -5747,8 +5928,11 @@
       <c r="AD45" s="7">
         <v>6230231</v>
       </c>
+      <c r="AE45" t="s">
+        <v>232</v>
+      </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:31">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -5839,8 +6023,11 @@
       <c r="AD46" s="7">
         <v>6230231</v>
       </c>
+      <c r="AE46" t="s">
+        <v>232</v>
+      </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:31">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -5931,8 +6118,11 @@
       <c r="AD47" s="7">
         <v>6230231</v>
       </c>
+      <c r="AE47" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:31">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -6023,8 +6213,11 @@
       <c r="AD48" s="7">
         <v>6230231</v>
       </c>
+      <c r="AE48" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:31">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -6115,8 +6308,11 @@
       <c r="AD49" s="7">
         <v>6230231</v>
       </c>
+      <c r="AE49" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:31">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -6207,8 +6403,11 @@
       <c r="AD50" s="7">
         <v>6229745</v>
       </c>
+      <c r="AE50" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:31">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -6299,8 +6498,11 @@
       <c r="AD51" s="7">
         <v>6229745</v>
       </c>
+      <c r="AE51" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:31">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -6391,8 +6593,11 @@
       <c r="AD52" s="7">
         <v>6229745</v>
       </c>
+      <c r="AE52" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:31">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -6483,8 +6688,11 @@
       <c r="AD53" s="7">
         <v>6229745</v>
       </c>
+      <c r="AE53" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:31">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -6575,8 +6783,11 @@
       <c r="AD54" s="7">
         <v>6229745</v>
       </c>
+      <c r="AE54" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:31">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -6667,8 +6878,11 @@
       <c r="AD55" s="7">
         <v>6229745</v>
       </c>
+      <c r="AE55" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:31">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -6759,8 +6973,11 @@
       <c r="AD56" s="7">
         <v>6231024</v>
       </c>
+      <c r="AE56" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:31">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -6851,8 +7068,11 @@
       <c r="AD57" s="7">
         <v>6231024</v>
       </c>
+      <c r="AE57" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:31">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -6943,8 +7163,11 @@
       <c r="AD58" s="7">
         <v>6231024</v>
       </c>
+      <c r="AE58" t="s">
+        <v>231</v>
+      </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:31">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -7035,8 +7258,11 @@
       <c r="AD59" s="7">
         <v>6231024</v>
       </c>
+      <c r="AE59" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:31">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -7127,8 +7353,11 @@
       <c r="AD60" s="7">
         <v>6231024</v>
       </c>
+      <c r="AE60" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:31">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -7219,8 +7448,11 @@
       <c r="AD61" s="7">
         <v>6231024</v>
       </c>
+      <c r="AE61" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:31">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -7311,8 +7543,11 @@
       <c r="AD62" s="7">
         <v>6234208</v>
       </c>
+      <c r="AE62" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="63" spans="1:30">
+    <row r="63" spans="1:31">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -7403,8 +7638,11 @@
       <c r="AD63" s="7">
         <v>6234208</v>
       </c>
+      <c r="AE63" t="s">
+        <v>228</v>
+      </c>
     </row>
-    <row r="64" spans="1:30">
+    <row r="64" spans="1:31">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -7495,8 +7733,11 @@
       <c r="AD64" s="7">
         <v>6234208</v>
       </c>
+      <c r="AE64" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="65" spans="1:30">
+    <row r="65" spans="1:31">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -7587,8 +7828,11 @@
       <c r="AD65" s="7">
         <v>6234208</v>
       </c>
+      <c r="AE65" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="66" spans="1:30">
+    <row r="66" spans="1:31">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -7679,8 +7923,11 @@
       <c r="AD66" s="7">
         <v>6234208</v>
       </c>
+      <c r="AE66" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="67" spans="1:30">
+    <row r="67" spans="1:31">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -7771,8 +8018,11 @@
       <c r="AD67" s="7">
         <v>6234208</v>
       </c>
+      <c r="AE67" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="68" spans="1:30">
+    <row r="68" spans="1:31">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -7863,8 +8113,11 @@
       <c r="AD68" s="7">
         <v>6234208</v>
       </c>
+      <c r="AE68" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="69" spans="1:30">
+    <row r="69" spans="1:31">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -7955,8 +8208,11 @@
       <c r="AD69" s="7">
         <v>6234257</v>
       </c>
+      <c r="AE69" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="70" spans="1:30">
+    <row r="70" spans="1:31">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -8047,8 +8303,11 @@
       <c r="AD70" s="7">
         <v>6234257</v>
       </c>
+      <c r="AE70" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="71" spans="1:30">
+    <row r="71" spans="1:31">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -8139,8 +8398,11 @@
       <c r="AD71" s="7">
         <v>6234257</v>
       </c>
+      <c r="AE71" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="72" spans="1:30">
+    <row r="72" spans="1:31">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -8231,8 +8493,11 @@
       <c r="AD72" s="7">
         <v>6234281</v>
       </c>
+      <c r="AE72" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="73" spans="1:30">
+    <row r="73" spans="1:31">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -8323,8 +8588,11 @@
       <c r="AD73" s="7">
         <v>6234276</v>
       </c>
+      <c r="AE73" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="74" spans="1:30">
+    <row r="74" spans="1:31">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -8415,8 +8683,11 @@
       <c r="AD74" s="7">
         <v>6234276</v>
       </c>
+      <c r="AE74" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="75" spans="1:30">
+    <row r="75" spans="1:31">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -8507,8 +8778,11 @@
       <c r="AD75" s="7">
         <v>6234276</v>
       </c>
+      <c r="AE75" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="76" spans="1:30">
+    <row r="76" spans="1:31">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -8599,8 +8873,11 @@
       <c r="AD76" s="7">
         <v>6234276</v>
       </c>
+      <c r="AE76" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="77" spans="1:30">
+    <row r="77" spans="1:31">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -8691,8 +8968,11 @@
       <c r="AD77" s="7">
         <v>6232277</v>
       </c>
+      <c r="AE77" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="78" spans="1:30">
+    <row r="78" spans="1:31">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -8783,8 +9063,11 @@
       <c r="AD78" s="7">
         <v>6232264</v>
       </c>
+      <c r="AE78" t="s">
+        <v>231</v>
+      </c>
     </row>
-    <row r="79" spans="1:30">
+    <row r="79" spans="1:31">
       <c r="A79" t="s">
         <v>84</v>
       </c>
@@ -8875,8 +9158,11 @@
       <c r="AD79" s="7">
         <v>6232235</v>
       </c>
+      <c r="AE79" t="s">
+        <v>231</v>
+      </c>
     </row>
-    <row r="80" spans="1:30">
+    <row r="80" spans="1:31">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -8967,8 +9253,11 @@
       <c r="AD80" s="7">
         <v>6232235</v>
       </c>
+      <c r="AE80" t="s">
+        <v>231</v>
+      </c>
     </row>
-    <row r="81" spans="1:30">
+    <row r="81" spans="1:31">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -9059,8 +9348,11 @@
       <c r="AD81" s="7">
         <v>6232235</v>
       </c>
+      <c r="AE81" t="s">
+        <v>232</v>
+      </c>
     </row>
-    <row r="82" spans="1:30">
+    <row r="82" spans="1:31">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -9151,8 +9443,11 @@
       <c r="AD82" s="8">
         <v>6232254</v>
       </c>
+      <c r="AE82" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="83" spans="1:30">
+    <row r="83" spans="1:31">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -9243,8 +9538,11 @@
       <c r="AD83" s="8">
         <v>6232254</v>
       </c>
+      <c r="AE83" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="84" spans="1:30">
+    <row r="84" spans="1:31">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -9335,8 +9633,11 @@
       <c r="AD84" s="8">
         <v>6232254</v>
       </c>
+      <c r="AE84" t="s">
+        <v>232</v>
+      </c>
     </row>
-    <row r="85" spans="1:30">
+    <row r="85" spans="1:31">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -9427,8 +9728,11 @@
       <c r="AD85" s="8">
         <v>6232254</v>
       </c>
+      <c r="AE85" t="s">
+        <v>228</v>
+      </c>
     </row>
-    <row r="86" spans="1:30">
+    <row r="86" spans="1:31">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -9519,8 +9823,11 @@
       <c r="AD86" s="8">
         <v>6232254</v>
       </c>
+      <c r="AE86" t="s">
+        <v>228</v>
+      </c>
     </row>
-    <row r="87" spans="1:30">
+    <row r="87" spans="1:31">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -9611,8 +9918,11 @@
       <c r="AD87" s="8">
         <v>6232254</v>
       </c>
+      <c r="AE87" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="88" spans="1:30">
+    <row r="88" spans="1:31">
       <c r="A88" t="s">
         <v>93</v>
       </c>
@@ -9703,8 +10013,11 @@
       <c r="AD88" s="8">
         <v>6232254</v>
       </c>
+      <c r="AE88" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="89" spans="1:30">
+    <row r="89" spans="1:31">
       <c r="A89" t="s">
         <v>94</v>
       </c>
@@ -9795,8 +10108,11 @@
       <c r="AD89" s="8">
         <v>6232254</v>
       </c>
+      <c r="AE89" t="s">
+        <v>228</v>
+      </c>
     </row>
-    <row r="90" spans="1:30">
+    <row r="90" spans="1:31">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -9887,8 +10203,11 @@
       <c r="AD90" s="8">
         <v>6232254</v>
       </c>
+      <c r="AE90" t="s">
+        <v>232</v>
+      </c>
     </row>
-    <row r="91" spans="1:30">
+    <row r="91" spans="1:31">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -9979,8 +10298,11 @@
       <c r="AD91" s="8">
         <v>6232254</v>
       </c>
+      <c r="AE91" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="92" spans="1:30">
+    <row r="92" spans="1:31">
       <c r="A92" t="s">
         <v>97</v>
       </c>
@@ -10071,8 +10393,11 @@
       <c r="AD92" s="7">
         <v>6222128</v>
       </c>
+      <c r="AE92" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="93" spans="1:30">
+    <row r="93" spans="1:31">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -10163,8 +10488,11 @@
       <c r="AD93" s="7">
         <v>6222128</v>
       </c>
+      <c r="AE93" t="s">
+        <v>228</v>
+      </c>
     </row>
-    <row r="94" spans="1:30">
+    <row r="94" spans="1:31">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -10255,8 +10583,11 @@
       <c r="AD94" s="7">
         <v>6221754</v>
       </c>
+      <c r="AE94" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="95" spans="1:30">
+    <row r="95" spans="1:31">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -10347,8 +10678,11 @@
       <c r="AD95" s="7">
         <v>6221349</v>
       </c>
+      <c r="AE95" t="s">
+        <v>228</v>
+      </c>
     </row>
-    <row r="96" spans="1:30">
+    <row r="96" spans="1:31">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -10439,8 +10773,11 @@
       <c r="AD96" s="7">
         <v>6220801</v>
       </c>
+      <c r="AE96" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="97" spans="1:30">
+    <row r="97" spans="1:31">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -10531,8 +10868,11 @@
       <c r="AD97" s="7">
         <v>6220801</v>
       </c>
+      <c r="AE97" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="98" spans="1:30">
+    <row r="98" spans="1:31">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -10623,8 +10963,11 @@
       <c r="AD98" s="7">
         <v>6220494</v>
       </c>
+      <c r="AE98" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="99" spans="1:30">
+    <row r="99" spans="1:31">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -10715,8 +11058,11 @@
       <c r="AD99" s="7">
         <v>6220494</v>
       </c>
+      <c r="AE99" t="s">
+        <v>228</v>
+      </c>
     </row>
-    <row r="100" spans="1:30">
+    <row r="100" spans="1:31">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -10807,8 +11153,11 @@
       <c r="AD100" s="7">
         <v>6220494</v>
       </c>
+      <c r="AE100" t="s">
+        <v>228</v>
+      </c>
     </row>
-    <row r="101" spans="1:30">
+    <row r="101" spans="1:31">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -10899,8 +11248,11 @@
       <c r="AD101" s="7">
         <v>6220494</v>
       </c>
+      <c r="AE101" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="102" spans="1:30">
+    <row r="102" spans="1:31">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -10991,8 +11343,11 @@
       <c r="AD102" s="7">
         <v>6220312</v>
       </c>
+      <c r="AE102" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="103" spans="1:30">
+    <row r="103" spans="1:31">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -11083,8 +11438,11 @@
       <c r="AD103" s="7">
         <v>6220312</v>
       </c>
+      <c r="AE103" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="104" spans="1:30">
+    <row r="104" spans="1:31">
       <c r="A104" t="s">
         <v>110</v>
       </c>
@@ -11175,8 +11533,11 @@
       <c r="AD104" s="7">
         <v>6220312</v>
       </c>
+      <c r="AE104" t="s">
+        <v>228</v>
+      </c>
     </row>
-    <row r="105" spans="1:30">
+    <row r="105" spans="1:31">
       <c r="A105" t="s">
         <v>111</v>
       </c>
@@ -11267,8 +11628,11 @@
       <c r="AD105" s="7">
         <v>6220312</v>
       </c>
+      <c r="AE105" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="106" spans="1:30">
+    <row r="106" spans="1:31">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -11359,8 +11723,11 @@
       <c r="AD106" s="7">
         <v>6220312</v>
       </c>
+      <c r="AE106" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="107" spans="1:30">
+    <row r="107" spans="1:31">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -11451,8 +11818,11 @@
       <c r="AD107" s="7">
         <v>6219982</v>
       </c>
+      <c r="AE107" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="108" spans="1:30">
+    <row r="108" spans="1:31">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -11543,8 +11913,11 @@
       <c r="AD108" s="7">
         <v>6219982</v>
       </c>
+      <c r="AE108" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="109" spans="1:30">
+    <row r="109" spans="1:31">
       <c r="A109" t="s">
         <v>115</v>
       </c>
@@ -11635,8 +12008,11 @@
       <c r="AD109" s="7">
         <v>6219665</v>
       </c>
+      <c r="AE109" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="110" spans="1:30">
+    <row r="110" spans="1:31">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -11727,8 +12103,11 @@
       <c r="AD110" s="7">
         <v>6219665</v>
       </c>
+      <c r="AE110" t="s">
+        <v>228</v>
+      </c>
     </row>
-    <row r="111" spans="1:30">
+    <row r="111" spans="1:31">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -11819,8 +12198,11 @@
       <c r="AD111" s="7">
         <v>6219665</v>
       </c>
+      <c r="AE111" t="s">
+        <v>228</v>
+      </c>
     </row>
-    <row r="112" spans="1:30">
+    <row r="112" spans="1:31">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -11911,8 +12293,11 @@
       <c r="AD112" s="7">
         <v>6219375</v>
       </c>
+      <c r="AE112" t="s">
+        <v>231</v>
+      </c>
     </row>
-    <row r="113" spans="1:30">
+    <row r="113" spans="1:31">
       <c r="A113" t="s">
         <v>119</v>
       </c>
@@ -12003,8 +12388,11 @@
       <c r="AD113" s="7">
         <v>6219375</v>
       </c>
+      <c r="AE113" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="114" spans="1:30">
+    <row r="114" spans="1:31">
       <c r="A114" t="s">
         <v>120</v>
       </c>
@@ -12095,8 +12483,11 @@
       <c r="AD114" s="7">
         <v>6219375</v>
       </c>
+      <c r="AE114" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="115" spans="1:30">
+    <row r="115" spans="1:31">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -12187,8 +12578,11 @@
       <c r="AD115" s="8">
         <v>6219322</v>
       </c>
+      <c r="AE115" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="116" spans="1:30">
+    <row r="116" spans="1:31">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -12279,8 +12673,11 @@
       <c r="AD116" s="8">
         <v>6219322</v>
       </c>
+      <c r="AE116" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="117" spans="1:30">
+    <row r="117" spans="1:31">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -12371,8 +12768,11 @@
       <c r="AD117" s="8">
         <v>6219322</v>
       </c>
+      <c r="AE117" t="s">
+        <v>228</v>
+      </c>
     </row>
-    <row r="118" spans="1:30">
+    <row r="118" spans="1:31">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -12463,8 +12863,11 @@
       <c r="AD118" s="8">
         <v>6219322</v>
       </c>
+      <c r="AE118" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="119" spans="1:30">
+    <row r="119" spans="1:31">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -12555,8 +12958,11 @@
       <c r="AD119" s="8">
         <v>6219322</v>
       </c>
+      <c r="AE119" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="120" spans="1:30">
+    <row r="120" spans="1:31">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -12647,8 +13053,11 @@
       <c r="AD120" s="8">
         <v>6219322</v>
       </c>
+      <c r="AE120" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="121" spans="1:30">
+    <row r="121" spans="1:31">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -12739,8 +13148,11 @@
       <c r="AD121" s="8">
         <v>6219322</v>
       </c>
+      <c r="AE121" t="s">
+        <v>228</v>
+      </c>
     </row>
-    <row r="122" spans="1:30">
+    <row r="122" spans="1:31">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -12831,8 +13243,11 @@
       <c r="AD122" s="7">
         <v>6234933</v>
       </c>
+      <c r="AE122" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="123" spans="1:30">
+    <row r="123" spans="1:31">
       <c r="A123" t="s">
         <v>131</v>
       </c>
@@ -12923,8 +13338,11 @@
       <c r="AD123" s="7">
         <v>6236343</v>
       </c>
+      <c r="AE123" t="s">
+        <v>228</v>
+      </c>
     </row>
-    <row r="124" spans="1:30">
+    <row r="124" spans="1:31">
       <c r="A124" t="s">
         <v>132</v>
       </c>
@@ -13015,8 +13433,11 @@
       <c r="AD124" s="7">
         <v>6236343</v>
       </c>
+      <c r="AE124" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="125" spans="1:30">
+    <row r="125" spans="1:31">
       <c r="A125" t="s">
         <v>133</v>
       </c>
@@ -13107,8 +13528,11 @@
       <c r="AD125" s="7">
         <v>6234933</v>
       </c>
+      <c r="AE125" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="126" spans="1:30">
+    <row r="126" spans="1:31">
       <c r="A126" t="s">
         <v>134</v>
       </c>
@@ -13199,8 +13623,11 @@
       <c r="AD126" s="7">
         <v>6236343</v>
       </c>
+      <c r="AE126" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="127" spans="1:30">
+    <row r="127" spans="1:31">
       <c r="A127" t="s">
         <v>135</v>
       </c>
@@ -13291,8 +13718,11 @@
       <c r="AD127" s="7">
         <v>6238820</v>
       </c>
+      <c r="AE127" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="128" spans="1:30">
+    <row r="128" spans="1:31">
       <c r="A128" t="s">
         <v>136</v>
       </c>
@@ -13383,8 +13813,11 @@
       <c r="AD128" s="7">
         <v>6238820</v>
       </c>
+      <c r="AE128" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="129" spans="1:30">
+    <row r="129" spans="1:31">
       <c r="A129" t="s">
         <v>137</v>
       </c>
@@ -13475,8 +13908,11 @@
       <c r="AD129" s="7">
         <v>6238820</v>
       </c>
+      <c r="AE129" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="130" spans="1:30">
+    <row r="130" spans="1:31">
       <c r="A130" t="s">
         <v>138</v>
       </c>
@@ -13567,8 +14003,11 @@
       <c r="AD130" s="7">
         <v>6238820</v>
       </c>
+      <c r="AE130" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="131" spans="1:30">
+    <row r="131" spans="1:31">
       <c r="A131" t="s">
         <v>139</v>
       </c>
@@ -13659,8 +14098,11 @@
       <c r="AD131" s="7">
         <v>6238820</v>
       </c>
+      <c r="AE131" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="132" spans="1:30">
+    <row r="132" spans="1:31">
       <c r="A132" t="s">
         <v>140</v>
       </c>
@@ -13751,8 +14193,11 @@
       <c r="AD132" s="7">
         <v>6238820</v>
       </c>
+      <c r="AE132" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="133" spans="1:30">
+    <row r="133" spans="1:31">
       <c r="A133" t="s">
         <v>141</v>
       </c>
@@ -13843,8 +14288,11 @@
       <c r="AD133" s="7">
         <v>6238820</v>
       </c>
+      <c r="AE133" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="134" spans="1:30">
+    <row r="134" spans="1:31">
       <c r="A134" t="s">
         <v>142</v>
       </c>
@@ -13935,8 +14383,11 @@
       <c r="AD134" s="7">
         <v>6238820</v>
       </c>
+      <c r="AE134" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="135" spans="1:30">
+    <row r="135" spans="1:31">
       <c r="A135" t="s">
         <v>143</v>
       </c>
@@ -14027,8 +14478,11 @@
       <c r="AD135" s="7">
         <v>6238820</v>
       </c>
+      <c r="AE135" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="136" spans="1:30">
+    <row r="136" spans="1:31">
       <c r="A136" t="s">
         <v>144</v>
       </c>
@@ -14119,8 +14573,11 @@
       <c r="AD136" s="7">
         <v>6238820</v>
       </c>
+      <c r="AE136" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="137" spans="1:30">
+    <row r="137" spans="1:31">
       <c r="A137" t="s">
         <v>145</v>
       </c>
@@ -14211,8 +14668,11 @@
       <c r="AD137" s="7">
         <v>6238820</v>
       </c>
+      <c r="AE137" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="138" spans="1:30">
+    <row r="138" spans="1:31">
       <c r="A138" t="s">
         <v>146</v>
       </c>
@@ -14303,8 +14763,11 @@
       <c r="AD138" s="7">
         <v>6238820</v>
       </c>
+      <c r="AE138" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="139" spans="1:30">
+    <row r="139" spans="1:31">
       <c r="A139" t="s">
         <v>147</v>
       </c>
@@ -14395,8 +14858,11 @@
       <c r="AD139" s="7">
         <v>6236329</v>
       </c>
+      <c r="AE139" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="140" spans="1:30">
+    <row r="140" spans="1:31">
       <c r="A140" t="s">
         <v>148</v>
       </c>
@@ -14487,8 +14953,11 @@
       <c r="AD140" s="7">
         <v>6234571</v>
       </c>
+      <c r="AE140" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="141" spans="1:30">
+    <row r="141" spans="1:31">
       <c r="A141" t="s">
         <v>149</v>
       </c>
@@ -14579,8 +15048,11 @@
       <c r="AD141" s="7">
         <v>6234571</v>
       </c>
+      <c r="AE141" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="142" spans="1:30">
+    <row r="142" spans="1:31">
       <c r="A142" t="s">
         <v>150</v>
       </c>
@@ -14671,8 +15143,11 @@
       <c r="AD142" s="7">
         <v>6233644</v>
       </c>
+      <c r="AE142" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="143" spans="1:30">
+    <row r="143" spans="1:31">
       <c r="A143" t="s">
         <v>151</v>
       </c>
@@ -14763,8 +15238,11 @@
       <c r="AD143" s="7">
         <v>6234571</v>
       </c>
+      <c r="AE143" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="144" spans="1:30">
+    <row r="144" spans="1:31">
       <c r="A144" t="s">
         <v>152</v>
       </c>
@@ -14855,8 +15333,11 @@
       <c r="AD144" s="7">
         <v>6233644</v>
       </c>
+      <c r="AE144" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="145" spans="1:30">
+    <row r="145" spans="1:31">
       <c r="A145" t="s">
         <v>153</v>
       </c>
@@ -14947,8 +15428,11 @@
       <c r="AD145" s="7">
         <v>6233644</v>
       </c>
+      <c r="AE145" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="146" spans="1:30">
+    <row r="146" spans="1:31">
       <c r="A146" t="s">
         <v>154</v>
       </c>
@@ -15039,8 +15523,11 @@
       <c r="AD146" s="7">
         <v>6231207</v>
       </c>
+      <c r="AE146" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="147" spans="1:30">
+    <row r="147" spans="1:31">
       <c r="A147" t="s">
         <v>155</v>
       </c>
@@ -15131,8 +15618,11 @@
       <c r="AD147" s="7">
         <v>6236329</v>
       </c>
+      <c r="AE147" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="148" spans="1:30">
+    <row r="148" spans="1:31">
       <c r="A148" t="s">
         <v>156</v>
       </c>
@@ -15223,8 +15713,11 @@
       <c r="AD148" s="7">
         <v>6236329</v>
       </c>
+      <c r="AE148" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="149" spans="1:30">
+    <row r="149" spans="1:31">
       <c r="A149" t="s">
         <v>157</v>
       </c>
@@ -15315,8 +15808,11 @@
       <c r="AD149" s="7">
         <v>6236329</v>
       </c>
+      <c r="AE149" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="150" spans="1:30">
+    <row r="150" spans="1:31">
       <c r="A150" t="s">
         <v>158</v>
       </c>
@@ -15407,8 +15903,11 @@
       <c r="AD150" s="7">
         <v>6236329</v>
       </c>
+      <c r="AE150" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="151" spans="1:30">
+    <row r="151" spans="1:31">
       <c r="A151" t="s">
         <v>159</v>
       </c>
@@ -15499,8 +15998,11 @@
       <c r="AD151" s="7">
         <v>6236329</v>
       </c>
+      <c r="AE151" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="152" spans="1:30">
+    <row r="152" spans="1:31">
       <c r="A152" t="s">
         <v>160</v>
       </c>
@@ -15591,8 +16093,11 @@
       <c r="AD152" s="7">
         <v>6231207</v>
       </c>
+      <c r="AE152" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="153" spans="1:30">
+    <row r="153" spans="1:31">
       <c r="A153" t="s">
         <v>161</v>
       </c>
@@ -15683,8 +16188,11 @@
       <c r="AD153" s="7">
         <v>6230131</v>
       </c>
+      <c r="AE153" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="154" spans="1:30">
+    <row r="154" spans="1:31">
       <c r="A154" t="s">
         <v>162</v>
       </c>
@@ -15775,8 +16283,11 @@
       <c r="AD154" s="7">
         <v>6230131</v>
       </c>
+      <c r="AE154" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="155" spans="1:30">
+    <row r="155" spans="1:31">
       <c r="A155" t="s">
         <v>163</v>
       </c>
@@ -15867,8 +16378,11 @@
       <c r="AD155" s="7">
         <v>6231207</v>
       </c>
+      <c r="AE155" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="156" spans="1:30">
+    <row r="156" spans="1:31">
       <c r="A156" t="s">
         <v>164</v>
       </c>
@@ -15959,8 +16473,11 @@
       <c r="AD156" s="7">
         <v>6230131</v>
       </c>
+      <c r="AE156" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="157" spans="1:30">
+    <row r="157" spans="1:31">
       <c r="A157" t="s">
         <v>165</v>
       </c>
@@ -16051,8 +16568,11 @@
       <c r="AD157" s="7">
         <v>6230131</v>
       </c>
+      <c r="AE157" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="158" spans="1:30">
+    <row r="158" spans="1:31">
       <c r="A158" t="s">
         <v>166</v>
       </c>
@@ -16143,8 +16663,11 @@
       <c r="AD158" s="7">
         <v>6231805</v>
       </c>
+      <c r="AE158" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="159" spans="1:30">
+    <row r="159" spans="1:31">
       <c r="A159" t="s">
         <v>167</v>
       </c>
@@ -16235,8 +16758,11 @@
       <c r="AD159" s="7">
         <v>6231805</v>
       </c>
+      <c r="AE159" t="s">
+        <v>228</v>
+      </c>
     </row>
-    <row r="160" spans="1:30">
+    <row r="160" spans="1:31">
       <c r="A160" t="s">
         <v>168</v>
       </c>
@@ -16327,8 +16853,11 @@
       <c r="AD160" s="7">
         <v>6231805</v>
       </c>
+      <c r="AE160" t="s">
+        <v>228</v>
+      </c>
     </row>
-    <row r="161" spans="1:30">
+    <row r="161" spans="1:31">
       <c r="A161" t="s">
         <v>169</v>
       </c>
@@ -16419,8 +16948,11 @@
       <c r="AD161" s="7">
         <v>6230569</v>
       </c>
+      <c r="AE161" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="162" spans="1:30">
+    <row r="162" spans="1:31">
       <c r="A162" t="s">
         <v>170</v>
       </c>
@@ -16511,8 +17043,11 @@
       <c r="AD162" s="8">
         <v>6230127</v>
       </c>
+      <c r="AE162" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="163" spans="1:30">
+    <row r="163" spans="1:31">
       <c r="A163" t="s">
         <v>172</v>
       </c>
@@ -16603,8 +17138,11 @@
       <c r="AD163" s="8">
         <v>6230127</v>
       </c>
+      <c r="AE163" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="164" spans="1:30">
+    <row r="164" spans="1:31">
       <c r="A164" t="s">
         <v>173</v>
       </c>
@@ -16695,8 +17233,11 @@
       <c r="AD164" s="8">
         <v>6230127</v>
       </c>
+      <c r="AE164" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="165" spans="1:30">
+    <row r="165" spans="1:31">
       <c r="A165" t="s">
         <v>174</v>
       </c>
@@ -16787,8 +17328,11 @@
       <c r="AD165" s="8">
         <v>6230127</v>
       </c>
+      <c r="AE165" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="166" spans="1:30">
+    <row r="166" spans="1:31">
       <c r="A166" t="s">
         <v>175</v>
       </c>
@@ -16879,8 +17423,11 @@
       <c r="AD166" s="8">
         <v>6230127</v>
       </c>
+      <c r="AE166" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="167" spans="1:30">
+    <row r="167" spans="1:31">
       <c r="A167" t="s">
         <v>176</v>
       </c>
@@ -16971,8 +17518,11 @@
       <c r="AD167" s="8">
         <v>6230127</v>
       </c>
+      <c r="AE167" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="168" spans="1:30">
+    <row r="168" spans="1:31">
       <c r="A168" t="s">
         <v>177</v>
       </c>
@@ -17063,8 +17613,11 @@
       <c r="AD168" s="8">
         <v>6230127</v>
       </c>
+      <c r="AE168" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="169" spans="1:30">
+    <row r="169" spans="1:31">
       <c r="A169" t="s">
         <v>178</v>
       </c>
@@ -17155,8 +17708,11 @@
       <c r="AD169" s="8">
         <v>6230127</v>
       </c>
+      <c r="AE169" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="170" spans="1:30">
+    <row r="170" spans="1:31">
       <c r="A170" t="s">
         <v>179</v>
       </c>
@@ -17247,8 +17803,11 @@
       <c r="AD170" s="8">
         <v>6230127</v>
       </c>
+      <c r="AE170" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="171" spans="1:30">
+    <row r="171" spans="1:31">
       <c r="A171" t="s">
         <v>180</v>
       </c>
@@ -17339,8 +17898,11 @@
       <c r="AD171" s="8">
         <v>6230127</v>
       </c>
+      <c r="AE171" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="172" spans="1:30">
+    <row r="172" spans="1:31">
       <c r="A172" t="s">
         <v>181</v>
       </c>
@@ -17431,8 +17993,11 @@
       <c r="AD172" s="8">
         <v>6230127</v>
       </c>
+      <c r="AE172" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="173" spans="1:30">
+    <row r="173" spans="1:31">
       <c r="A173" t="s">
         <v>182</v>
       </c>
@@ -17523,8 +18088,11 @@
       <c r="AD173" s="8">
         <v>6230127</v>
       </c>
+      <c r="AE173" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="174" spans="1:30">
+    <row r="174" spans="1:31">
       <c r="A174" t="s">
         <v>183</v>
       </c>
@@ -17615,8 +18183,11 @@
       <c r="AD174" s="8">
         <v>6230127</v>
       </c>
+      <c r="AE174" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="175" spans="1:30">
+    <row r="175" spans="1:31">
       <c r="A175" t="s">
         <v>184</v>
       </c>
@@ -17707,8 +18278,11 @@
       <c r="AD175" s="8">
         <v>6230127</v>
       </c>
+      <c r="AE175" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="176" spans="1:30">
+    <row r="176" spans="1:31">
       <c r="A176" t="s">
         <v>185</v>
       </c>
@@ -17799,8 +18373,11 @@
       <c r="AD176" s="8">
         <v>6236426</v>
       </c>
+      <c r="AE176" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="177" spans="1:30">
+    <row r="177" spans="1:31">
       <c r="A177" t="s">
         <v>186</v>
       </c>
@@ -17891,8 +18468,11 @@
       <c r="AD177" s="8">
         <v>6236426</v>
       </c>
+      <c r="AE177" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="178" spans="1:30">
+    <row r="178" spans="1:31">
       <c r="A178" t="s">
         <v>187</v>
       </c>
@@ -17983,8 +18563,11 @@
       <c r="AD178" s="8">
         <v>6233405</v>
       </c>
+      <c r="AE178" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="179" spans="1:30">
+    <row r="179" spans="1:31">
       <c r="A179" s="2" t="s">
         <v>188</v>
       </c>
@@ -18075,8 +18658,11 @@
       <c r="AD179" s="8">
         <v>6233405</v>
       </c>
+      <c r="AE179" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="180" spans="1:30">
+    <row r="180" spans="1:31">
       <c r="A180" t="s">
         <v>189</v>
       </c>
@@ -18167,8 +18753,11 @@
       <c r="AD180" s="8">
         <v>6233405</v>
       </c>
+      <c r="AE180" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="181" spans="1:30">
+    <row r="181" spans="1:31">
       <c r="A181" t="s">
         <v>190</v>
       </c>
@@ -18259,8 +18848,11 @@
       <c r="AD181" s="8">
         <v>6233405</v>
       </c>
+      <c r="AE181" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="182" spans="1:30">
+    <row r="182" spans="1:31">
       <c r="A182" t="s">
         <v>191</v>
       </c>
@@ -18351,8 +18943,11 @@
       <c r="AD182" s="8">
         <v>6233405</v>
       </c>
+      <c r="AE182" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="183" spans="1:30">
+    <row r="183" spans="1:31">
       <c r="A183" t="s">
         <v>192</v>
       </c>
@@ -18443,8 +19038,11 @@
       <c r="AD183" s="8">
         <v>6233405</v>
       </c>
+      <c r="AE183" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="184" spans="1:30">
+    <row r="184" spans="1:31">
       <c r="A184" t="s">
         <v>193</v>
       </c>
@@ -18535,8 +19133,11 @@
       <c r="AD184" s="8">
         <v>6233405</v>
       </c>
+      <c r="AE184" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="185" spans="1:30">
+    <row r="185" spans="1:31">
       <c r="A185" t="s">
         <v>194</v>
       </c>
@@ -18627,8 +19228,11 @@
       <c r="AD185" s="8">
         <v>6233405</v>
       </c>
+      <c r="AE185" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="186" spans="1:30">
+    <row r="186" spans="1:31">
       <c r="A186" t="s">
         <v>195</v>
       </c>
@@ -18719,8 +19323,11 @@
       <c r="AD186" s="8">
         <v>6233405</v>
       </c>
+      <c r="AE186" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="187" spans="1:30">
+    <row r="187" spans="1:31">
       <c r="A187" t="s">
         <v>196</v>
       </c>
@@ -18811,8 +19418,11 @@
       <c r="AD187" s="8">
         <v>6236426</v>
       </c>
+      <c r="AE187" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="188" spans="1:30">
+    <row r="188" spans="1:31">
       <c r="A188" t="s">
         <v>197</v>
       </c>
@@ -18903,8 +19513,11 @@
       <c r="AD188" s="8">
         <v>6236426</v>
       </c>
+      <c r="AE188" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="189" spans="1:30">
+    <row r="189" spans="1:31">
       <c r="A189" t="s">
         <v>198</v>
       </c>
@@ -18995,8 +19608,11 @@
       <c r="AD189" s="8">
         <v>6236426</v>
       </c>
+      <c r="AE189" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="190" spans="1:30">
+    <row r="190" spans="1:31">
       <c r="A190" t="s">
         <v>199</v>
       </c>
@@ -19087,8 +19703,11 @@
       <c r="AD190" s="8">
         <v>6236426</v>
       </c>
+      <c r="AE190" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="191" spans="1:30">
+    <row r="191" spans="1:31">
       <c r="A191" t="s">
         <v>200</v>
       </c>
@@ -19179,9 +19798,12 @@
       <c r="AD191" s="8">
         <v>6236426</v>
       </c>
+      <c r="AE191" t="s">
+        <v>229</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD191"/>
+  <autoFilter ref="A1:AE191"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
